--- a/Logs/Conescapan/cv5/vuelta5corre.xlsx
+++ b/Logs/Conescapan/cv5/vuelta5corre.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61848C13-D921-4D70-9FA8-91CEEA1232C9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14CF83E-F85A-4D68-A97E-A233201211FD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,38 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
+  <si>
+    <t>Latitud</t>
+  </si>
+  <si>
+    <t>Longitud</t>
+  </si>
+  <si>
+    <t>DRPREG0</t>
+  </si>
+  <si>
+    <t>DRPREG1</t>
+  </si>
+  <si>
+    <t>DRPREG2</t>
+  </si>
+  <si>
+    <t>DRPREG3</t>
+  </si>
+  <si>
+    <t>Longitudvirtual</t>
+  </si>
+  <si>
+    <t>latitudvirtual</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,8 +80,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -63,6 +99,30 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -130,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -147,6 +207,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6598,7 +6662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B154"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A100" sqref="A100:B137"/>
     </sheetView>
   </sheetViews>
@@ -7777,63 +7841,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A38456-CE30-457D-B5BE-6576785CB263}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:H36"/>
+      <selection activeCell="H1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3">
-        <v>-79.531690999999995</v>
-      </c>
-      <c r="B1" s="3">
-        <v>9.0234179999999995</v>
-      </c>
-      <c r="C1" s="4">
-        <v>9.0234172273399995</v>
-      </c>
-      <c r="D1" s="5">
-        <v>-79.531697653199998</v>
-      </c>
-      <c r="E1" s="4">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="8">
-        <v>32</v>
-      </c>
-      <c r="G1" s="8">
-        <v>24</v>
-      </c>
-      <c r="H1" s="5">
+      <c r="B1" t="s">
         <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>-79.531687000000005</v>
+        <v>-79.531690999999995</v>
       </c>
       <c r="B2" s="3">
-        <v>9.0234249999999996</v>
-      </c>
-      <c r="C2" s="6">
-        <v>9.0234185325399991</v>
-      </c>
-      <c r="D2" s="7">
-        <v>-79.531698605499997</v>
-      </c>
-      <c r="E2" s="6">
+        <v>9.0234179999999995</v>
+      </c>
+      <c r="C2" s="4">
+        <v>9.0234172273399995</v>
+      </c>
+      <c r="D2" s="5">
+        <v>-79.531697653199998</v>
+      </c>
+      <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>32</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>24</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="5">
         <v>0</v>
       </c>
     </row>
@@ -7842,24 +7906,24 @@
         <v>-79.531687000000005</v>
       </c>
       <c r="B3" s="3">
-        <v>9.0234269999999999</v>
-      </c>
-      <c r="C3" s="4">
+        <v>9.0234249999999996</v>
+      </c>
+      <c r="C3" s="6">
         <v>9.0234185325399991</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="7">
         <v>-79.531698605499997</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="6">
         <v>1</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="9">
         <v>32</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="9">
         <v>24</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="7">
         <v>0</v>
       </c>
     </row>
@@ -7870,22 +7934,22 @@
       <c r="B4" s="3">
         <v>9.0234269999999999</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>9.0234185325399991</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>-79.531698605499997</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>32</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>24</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="5">
         <v>0</v>
       </c>
     </row>
@@ -7896,724 +7960,724 @@
       <c r="B5" s="3">
         <v>9.0234269999999999</v>
       </c>
-      <c r="C5" s="4">
-        <v>9.0234171041100009</v>
-      </c>
-      <c r="D5" s="5">
-        <v>-79.5316975633</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="C5" s="6">
+        <v>9.0234185325399991</v>
+      </c>
+      <c r="D5" s="7">
+        <v>-79.531698605499997</v>
+      </c>
+      <c r="E5" s="6">
         <v>1</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="9">
         <v>32</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="9">
         <v>24</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>-79.531683999999998</v>
+        <v>-79.531687000000005</v>
       </c>
       <c r="B6" s="3">
         <v>9.0234269999999999</v>
       </c>
-      <c r="C6" s="6">
-        <v>9.02341063133</v>
-      </c>
-      <c r="D6" s="7">
-        <v>-79.531692840700003</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="C6" s="4">
+        <v>9.0234171041100009</v>
+      </c>
+      <c r="D6" s="5">
+        <v>-79.5316975633</v>
+      </c>
+      <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="F6" s="9">
-        <v>31</v>
-      </c>
-      <c r="G6" s="9">
+      <c r="F6" s="8">
+        <v>32</v>
+      </c>
+      <c r="G6" s="8">
         <v>24</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>-79.531679999999994</v>
+        <v>-79.531683999999998</v>
       </c>
       <c r="B7" s="3">
-        <v>9.0234199999999998</v>
-      </c>
-      <c r="C7" s="4">
-        <v>9.0234004193999997</v>
-      </c>
-      <c r="D7" s="5">
-        <v>-79.531685389900005</v>
-      </c>
-      <c r="E7" s="4">
+        <v>9.0234269999999999</v>
+      </c>
+      <c r="C7" s="6">
+        <v>9.02341063133</v>
+      </c>
+      <c r="D7" s="7">
+        <v>-79.531692840700003</v>
+      </c>
+      <c r="E7" s="6">
         <v>1</v>
       </c>
-      <c r="F7" s="8">
-        <v>29</v>
-      </c>
-      <c r="G7" s="8">
+      <c r="F7" s="9">
+        <v>31</v>
+      </c>
+      <c r="G7" s="9">
         <v>24</v>
       </c>
-      <c r="H7" s="5">
-        <v>1</v>
+      <c r="H7" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>-79.531675000000007</v>
+        <v>-79.531679999999994</v>
       </c>
       <c r="B8" s="3">
-        <v>9.0234079999999999</v>
-      </c>
-      <c r="C8" s="6">
-        <v>9.0233895548599996</v>
-      </c>
-      <c r="D8" s="7">
-        <v>-79.531677463099996</v>
-      </c>
-      <c r="E8" s="6">
+        <v>9.0234199999999998</v>
+      </c>
+      <c r="C8" s="4">
+        <v>9.0234004193999997</v>
+      </c>
+      <c r="D8" s="5">
+        <v>-79.531685389900005</v>
+      </c>
+      <c r="E8" s="4">
         <v>1</v>
       </c>
-      <c r="F8" s="9">
-        <v>28</v>
-      </c>
-      <c r="G8" s="9">
-        <v>25</v>
-      </c>
-      <c r="H8" s="7">
-        <v>3</v>
+      <c r="F8" s="8">
+        <v>29</v>
+      </c>
+      <c r="G8" s="8">
+        <v>24</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>-79.531670000000005</v>
+        <v>-79.531675000000007</v>
       </c>
       <c r="B9" s="3">
-        <v>9.0233950000000007</v>
-      </c>
-      <c r="C9" s="4">
-        <v>9.0233785671</v>
-      </c>
-      <c r="D9" s="5">
-        <v>-79.5316694463</v>
-      </c>
-      <c r="E9" s="4">
+        <v>9.0234079999999999</v>
+      </c>
+      <c r="C9" s="6">
+        <v>9.0233895548599996</v>
+      </c>
+      <c r="D9" s="7">
+        <v>-79.531677463099996</v>
+      </c>
+      <c r="E9" s="6">
         <v>1</v>
       </c>
-      <c r="F9" s="8">
-        <v>27</v>
-      </c>
-      <c r="G9" s="8">
+      <c r="F9" s="9">
+        <v>28</v>
+      </c>
+      <c r="G9" s="9">
         <v>25</v>
       </c>
-      <c r="H9" s="5">
-        <v>4</v>
+      <c r="H9" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>-79.531661999999997</v>
+        <v>-79.531670000000005</v>
       </c>
       <c r="B10" s="3">
-        <v>9.0233840000000001</v>
-      </c>
-      <c r="C10" s="6">
-        <v>9.0233672796600004</v>
-      </c>
-      <c r="D10" s="7">
-        <v>-79.531661210899998</v>
-      </c>
-      <c r="E10" s="6">
+        <v>9.0233950000000007</v>
+      </c>
+      <c r="C10" s="4">
+        <v>9.0233785671</v>
+      </c>
+      <c r="D10" s="5">
+        <v>-79.5316694463</v>
+      </c>
+      <c r="E10" s="4">
         <v>1</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
+        <v>27</v>
+      </c>
+      <c r="G10" s="8">
         <v>25</v>
       </c>
-      <c r="G10" s="9">
-        <v>26</v>
-      </c>
-      <c r="H10" s="7">
-        <v>5</v>
+      <c r="H10" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>-79.531651999999994</v>
+        <v>-79.531661999999997</v>
       </c>
       <c r="B11" s="3">
-        <v>9.0233740000000004</v>
-      </c>
-      <c r="C11" s="4">
-        <v>9.02335599221</v>
-      </c>
-      <c r="D11" s="5">
-        <v>-79.531652975399993</v>
-      </c>
-      <c r="E11" s="4">
+        <v>9.0233840000000001</v>
+      </c>
+      <c r="C11" s="6">
+        <v>9.0233672796600004</v>
+      </c>
+      <c r="D11" s="7">
+        <v>-79.531661210899998</v>
+      </c>
+      <c r="E11" s="6">
         <v>1</v>
       </c>
-      <c r="F11" s="8">
-        <v>23</v>
-      </c>
-      <c r="G11" s="8">
-        <v>27</v>
-      </c>
-      <c r="H11" s="5">
-        <v>7</v>
+      <c r="F11" s="9">
+        <v>25</v>
+      </c>
+      <c r="G11" s="9">
+        <v>26</v>
+      </c>
+      <c r="H11" s="7">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>-79.531642000000005</v>
+        <v>-79.531651999999994</v>
       </c>
       <c r="B12" s="3">
-        <v>9.0233640000000008</v>
-      </c>
-      <c r="C12" s="6">
-        <v>9.0233458335099996</v>
-      </c>
-      <c r="D12" s="7">
-        <v>-79.531645563599994</v>
-      </c>
-      <c r="E12" s="6">
+        <v>9.0233740000000004</v>
+      </c>
+      <c r="C12" s="4">
+        <v>9.02335599221</v>
+      </c>
+      <c r="D12" s="5">
+        <v>-79.531652975399993</v>
+      </c>
+      <c r="E12" s="4">
         <v>1</v>
       </c>
-      <c r="F12" s="9">
-        <v>22</v>
-      </c>
-      <c r="G12" s="9">
+      <c r="F12" s="8">
+        <v>23</v>
+      </c>
+      <c r="G12" s="8">
         <v>27</v>
       </c>
-      <c r="H12" s="7">
-        <v>8</v>
+      <c r="H12" s="5">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>-79.531632999999999</v>
+        <v>-79.531642000000005</v>
       </c>
       <c r="B13" s="3">
-        <v>9.0233550000000005</v>
-      </c>
-      <c r="C13" s="4">
-        <v>9.0233350221999995</v>
-      </c>
-      <c r="D13" s="5">
-        <v>-79.531637675499994</v>
-      </c>
-      <c r="E13" s="4">
+        <v>9.0233640000000008</v>
+      </c>
+      <c r="C13" s="6">
+        <v>9.0233458335099996</v>
+      </c>
+      <c r="D13" s="7">
+        <v>-79.531645563599994</v>
+      </c>
+      <c r="E13" s="6">
         <v>1</v>
       </c>
-      <c r="F13" s="8">
-        <v>21</v>
-      </c>
-      <c r="G13" s="8">
-        <v>28</v>
-      </c>
-      <c r="H13" s="5">
-        <v>10</v>
+      <c r="F13" s="9">
+        <v>22</v>
+      </c>
+      <c r="G13" s="9">
+        <v>27</v>
+      </c>
+      <c r="H13" s="7">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>-79.531623999999994</v>
+        <v>-79.531632999999999</v>
       </c>
       <c r="B14" s="3">
-        <v>9.0233450000000008</v>
-      </c>
-      <c r="C14" s="6">
-        <v>9.0233246870400006</v>
-      </c>
-      <c r="D14" s="7">
-        <v>-79.531630134899999</v>
-      </c>
-      <c r="E14" s="6">
+        <v>9.0233550000000005</v>
+      </c>
+      <c r="C14" s="4">
+        <v>9.0233350221999995</v>
+      </c>
+      <c r="D14" s="5">
+        <v>-79.531637675499994</v>
+      </c>
+      <c r="E14" s="4">
         <v>1</v>
       </c>
-      <c r="F14" s="9">
-        <v>19</v>
-      </c>
-      <c r="G14" s="9">
-        <v>29</v>
-      </c>
-      <c r="H14" s="7">
-        <v>11</v>
+      <c r="F14" s="8">
+        <v>21</v>
+      </c>
+      <c r="G14" s="8">
+        <v>28</v>
+      </c>
+      <c r="H14" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>-79.531616</v>
+        <v>-79.531623999999994</v>
       </c>
       <c r="B15" s="3">
-        <v>9.0233349999999994</v>
-      </c>
-      <c r="C15" s="4">
-        <v>9.0233132231400006</v>
-      </c>
-      <c r="D15" s="5">
-        <v>-79.531621770699999</v>
-      </c>
-      <c r="E15" s="4">
-        <v>2</v>
-      </c>
-      <c r="F15" s="8">
-        <v>18</v>
-      </c>
-      <c r="G15" s="8">
+        <v>9.0233450000000008</v>
+      </c>
+      <c r="C15" s="6">
+        <v>9.0233246870400006</v>
+      </c>
+      <c r="D15" s="7">
+        <v>-79.531630134899999</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="9">
+        <v>19</v>
+      </c>
+      <c r="G15" s="9">
         <v>29</v>
       </c>
-      <c r="H15" s="5">
-        <v>12</v>
+      <c r="H15" s="7">
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>-79.531606999999994</v>
+        <v>-79.531616</v>
       </c>
       <c r="B16" s="3">
-        <v>9.0233240000000006</v>
-      </c>
-      <c r="C16" s="6">
-        <v>9.0233022353799992</v>
-      </c>
-      <c r="D16" s="7">
-        <v>-79.531613753900004</v>
-      </c>
-      <c r="E16" s="6">
+        <v>9.0233349999999994</v>
+      </c>
+      <c r="C16" s="4">
+        <v>9.0233132231400006</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-79.531621770699999</v>
+      </c>
+      <c r="E16" s="4">
         <v>2</v>
       </c>
-      <c r="F16" s="9">
-        <v>16</v>
-      </c>
-      <c r="G16" s="9">
-        <v>30</v>
-      </c>
-      <c r="H16" s="7">
-        <v>14</v>
+      <c r="F16" s="8">
+        <v>18</v>
+      </c>
+      <c r="G16" s="8">
+        <v>29</v>
+      </c>
+      <c r="H16" s="5">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>-79.531599</v>
+        <v>-79.531606999999994</v>
       </c>
       <c r="B17" s="3">
-        <v>9.0233129999999999</v>
-      </c>
-      <c r="C17" s="4">
-        <v>9.0232902420999999</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-79.531605003500005</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" s="8">
-        <v>15</v>
-      </c>
-      <c r="G17" s="8">
+        <v>9.0233240000000006</v>
+      </c>
+      <c r="C17" s="6">
+        <v>9.0233022353799992</v>
+      </c>
+      <c r="D17" s="7">
+        <v>-79.531613753900004</v>
+      </c>
+      <c r="E17" s="6">
+        <v>2</v>
+      </c>
+      <c r="F17" s="9">
+        <v>16</v>
+      </c>
+      <c r="G17" s="9">
         <v>30</v>
       </c>
-      <c r="H17" s="5">
-        <v>15</v>
+      <c r="H17" s="7">
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>-79.531593000000001</v>
+        <v>-79.531599</v>
       </c>
       <c r="B18" s="3">
-        <v>9.0232989999999997</v>
-      </c>
-      <c r="C18" s="6">
-        <v>9.0232790778799998</v>
-      </c>
-      <c r="D18" s="7">
-        <v>-79.531596858</v>
-      </c>
-      <c r="E18" s="6">
+        <v>9.0233129999999999</v>
+      </c>
+      <c r="C18" s="4">
+        <v>9.0232902420999999</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-79.531605003500005</v>
+      </c>
+      <c r="E18" s="4">
         <v>1</v>
       </c>
-      <c r="F18" s="9">
-        <v>13</v>
-      </c>
-      <c r="G18" s="9">
-        <v>31</v>
-      </c>
-      <c r="H18" s="7">
-        <v>16</v>
+      <c r="F18" s="8">
+        <v>15</v>
+      </c>
+      <c r="G18" s="8">
+        <v>30</v>
+      </c>
+      <c r="H18" s="5">
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>-79.531586000000004</v>
+        <v>-79.531593000000001</v>
       </c>
       <c r="B19" s="3">
-        <v>9.0232869999999998</v>
-      </c>
-      <c r="C19" s="4">
-        <v>9.0232677372100003</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-79.531588583800001</v>
-      </c>
-      <c r="E19" s="4">
+        <v>9.0232989999999997</v>
+      </c>
+      <c r="C19" s="6">
+        <v>9.0232790778799998</v>
+      </c>
+      <c r="D19" s="7">
+        <v>-79.531596858</v>
+      </c>
+      <c r="E19" s="6">
         <v>1</v>
       </c>
-      <c r="F19" s="8">
-        <v>12</v>
-      </c>
-      <c r="G19" s="8">
+      <c r="F19" s="9">
+        <v>13</v>
+      </c>
+      <c r="G19" s="9">
         <v>31</v>
       </c>
-      <c r="H19" s="5">
-        <v>18</v>
+      <c r="H19" s="7">
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>-79.531580000000005</v>
+        <v>-79.531586000000004</v>
       </c>
       <c r="B20" s="3">
-        <v>9.0232740000000007</v>
-      </c>
-      <c r="C20" s="6">
-        <v>9.0232574020499996</v>
-      </c>
-      <c r="D20" s="7">
-        <v>-79.531581043100005</v>
-      </c>
-      <c r="E20" s="6">
+        <v>9.0232869999999998</v>
+      </c>
+      <c r="C20" s="4">
+        <v>9.0232677372100003</v>
+      </c>
+      <c r="D20" s="5">
+        <v>-79.531588583800001</v>
+      </c>
+      <c r="E20" s="4">
         <v>1</v>
       </c>
-      <c r="F20" s="9">
-        <v>10</v>
-      </c>
-      <c r="G20" s="9">
+      <c r="F20" s="8">
+        <v>12</v>
+      </c>
+      <c r="G20" s="8">
         <v>31</v>
       </c>
-      <c r="H20" s="7">
-        <v>19</v>
+      <c r="H20" s="5">
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>-79.531571999999997</v>
+        <v>-79.531580000000005</v>
       </c>
       <c r="B21" s="3">
-        <v>9.0232639999999993</v>
-      </c>
-      <c r="C21" s="4">
-        <v>9.0232461145999991</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-79.531572807700002</v>
-      </c>
-      <c r="E21" s="4">
+        <v>9.0232740000000007</v>
+      </c>
+      <c r="C21" s="6">
+        <v>9.0232574020499996</v>
+      </c>
+      <c r="D21" s="7">
+        <v>-79.531581043100005</v>
+      </c>
+      <c r="E21" s="6">
         <v>1</v>
       </c>
-      <c r="F21" s="8">
-        <v>9</v>
-      </c>
-      <c r="G21" s="8">
-        <v>32</v>
-      </c>
-      <c r="H21" s="5">
-        <v>21</v>
+      <c r="F21" s="9">
+        <v>10</v>
+      </c>
+      <c r="G21" s="9">
+        <v>31</v>
+      </c>
+      <c r="H21" s="7">
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>-79.531561999999994</v>
+        <v>-79.531571999999997</v>
       </c>
       <c r="B22" s="3">
-        <v>9.0232539999999997</v>
-      </c>
-      <c r="C22" s="6">
-        <v>9.0232359559000006</v>
-      </c>
-      <c r="D22" s="7">
-        <v>-79.531565395800001</v>
-      </c>
-      <c r="E22" s="6">
+        <v>9.0232639999999993</v>
+      </c>
+      <c r="C22" s="4">
+        <v>9.0232461145999991</v>
+      </c>
+      <c r="D22" s="5">
+        <v>-79.531572807700002</v>
+      </c>
+      <c r="E22" s="4">
         <v>1</v>
       </c>
-      <c r="F22" s="9">
-        <v>7</v>
-      </c>
-      <c r="G22" s="9">
-        <v>33</v>
-      </c>
-      <c r="H22" s="7">
-        <v>22</v>
+      <c r="F22" s="8">
+        <v>9</v>
+      </c>
+      <c r="G22" s="8">
+        <v>32</v>
+      </c>
+      <c r="H22" s="5">
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>-79.531553000000002</v>
+        <v>-79.531561999999994</v>
       </c>
       <c r="B23" s="3">
-        <v>9.0232449999999993</v>
-      </c>
-      <c r="C23" s="4">
-        <v>9.0232261501100002</v>
-      </c>
-      <c r="D23" s="5">
-        <v>-79.531558241400006</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2</v>
-      </c>
-      <c r="F23" s="8">
-        <v>6</v>
-      </c>
-      <c r="G23" s="8">
-        <v>34</v>
-      </c>
-      <c r="H23" s="5">
-        <v>23</v>
+        <v>9.0232539999999997</v>
+      </c>
+      <c r="C23" s="6">
+        <v>9.0232359559000006</v>
+      </c>
+      <c r="D23" s="7">
+        <v>-79.531565395800001</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+      <c r="F23" s="9">
+        <v>7</v>
+      </c>
+      <c r="G23" s="9">
+        <v>33</v>
+      </c>
+      <c r="H23" s="7">
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>-79.531542000000002</v>
+        <v>-79.531553000000002</v>
       </c>
       <c r="B24" s="3">
-        <v>9.0232379999999992</v>
-      </c>
-      <c r="C24" s="6">
-        <v>9.0232155152600004</v>
-      </c>
-      <c r="D24" s="7">
-        <v>-79.531550482100002</v>
-      </c>
-      <c r="E24" s="6">
+        <v>9.0232449999999993</v>
+      </c>
+      <c r="C24" s="4">
+        <v>9.0232261501100002</v>
+      </c>
+      <c r="D24" s="5">
+        <v>-79.531558241400006</v>
+      </c>
+      <c r="E24" s="4">
         <v>2</v>
       </c>
-      <c r="F24" s="9">
-        <v>4</v>
-      </c>
-      <c r="G24" s="9">
-        <v>35</v>
-      </c>
-      <c r="H24" s="7">
-        <v>25</v>
+      <c r="F24" s="8">
+        <v>6</v>
+      </c>
+      <c r="G24" s="8">
+        <v>34</v>
+      </c>
+      <c r="H24" s="5">
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>-79.531531999999999</v>
+        <v>-79.531542000000002</v>
       </c>
       <c r="B25" s="3">
-        <v>9.0232290000000006</v>
-      </c>
-      <c r="C25" s="4">
-        <v>9.0232040513600005</v>
-      </c>
-      <c r="D25" s="5">
-        <v>-79.531542118000004</v>
-      </c>
-      <c r="E25" s="4">
+        <v>9.0232379999999992</v>
+      </c>
+      <c r="C25" s="6">
+        <v>9.0232155152600004</v>
+      </c>
+      <c r="D25" s="7">
+        <v>-79.531550482100002</v>
+      </c>
+      <c r="E25" s="6">
         <v>2</v>
       </c>
-      <c r="F25" s="8">
-        <v>3</v>
-      </c>
-      <c r="G25" s="8">
+      <c r="F25" s="9">
+        <v>4</v>
+      </c>
+      <c r="G25" s="9">
         <v>35</v>
       </c>
-      <c r="H25" s="5">
-        <v>26</v>
+      <c r="H25" s="7">
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>-79.531523000000007</v>
+        <v>-79.531531999999999</v>
       </c>
       <c r="B26" s="3">
-        <v>9.023218</v>
-      </c>
-      <c r="C26" s="6">
-        <v>9.0231930636000008</v>
-      </c>
-      <c r="D26" s="7">
-        <v>-79.531534101199995</v>
-      </c>
-      <c r="E26" s="6">
+        <v>9.0232290000000006</v>
+      </c>
+      <c r="C26" s="4">
+        <v>9.0232040513600005</v>
+      </c>
+      <c r="D26" s="5">
+        <v>-79.531542118000004</v>
+      </c>
+      <c r="E26" s="4">
         <v>2</v>
       </c>
-      <c r="F26" s="9">
-        <v>1</v>
-      </c>
-      <c r="G26" s="9">
-        <v>36</v>
-      </c>
-      <c r="H26" s="7">
-        <v>28</v>
+      <c r="F26" s="8">
+        <v>3</v>
+      </c>
+      <c r="G26" s="8">
+        <v>35</v>
+      </c>
+      <c r="H26" s="5">
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>-79.531514999999999</v>
+        <v>-79.531523000000007</v>
       </c>
       <c r="B27" s="3">
-        <v>9.0232069999999993</v>
-      </c>
-      <c r="C27" s="4">
-        <v>9.0231828516700006</v>
-      </c>
-      <c r="D27" s="5">
-        <v>-79.531526650499998</v>
-      </c>
-      <c r="E27" s="4">
+        <v>9.023218</v>
+      </c>
+      <c r="C27" s="6">
+        <v>9.0231930636000008</v>
+      </c>
+      <c r="D27" s="7">
+        <v>-79.531534101199995</v>
+      </c>
+      <c r="E27" s="6">
         <v>2</v>
       </c>
-      <c r="F27" s="8">
-        <v>0</v>
-      </c>
-      <c r="G27" s="8">
+      <c r="F27" s="9">
+        <v>1</v>
+      </c>
+      <c r="G27" s="9">
         <v>36</v>
       </c>
-      <c r="H27" s="5">
-        <v>29</v>
+      <c r="H27" s="7">
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>-79.531509999999997</v>
+        <v>-79.531514999999999</v>
       </c>
       <c r="B28" s="3">
-        <v>9.0231949999999994</v>
-      </c>
-      <c r="C28" s="6">
-        <v>9.0231724632799999</v>
-      </c>
-      <c r="D28" s="7">
-        <v>-79.531519071000005</v>
-      </c>
-      <c r="E28" s="6">
-        <v>1</v>
-      </c>
-      <c r="F28" s="9">
+        <v>9.0232069999999993</v>
+      </c>
+      <c r="C28" s="4">
+        <v>9.0231828516700006</v>
+      </c>
+      <c r="D28" s="5">
+        <v>-79.531526650499998</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2</v>
+      </c>
+      <c r="F28" s="8">
         <v>0</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="8">
         <v>36</v>
       </c>
-      <c r="H28" s="7">
-        <v>30</v>
+      <c r="H28" s="5">
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>-79.531505999999993</v>
+        <v>-79.531509999999997</v>
       </c>
       <c r="B29" s="3">
-        <v>9.0231820000000003</v>
-      </c>
-      <c r="C29" s="4">
-        <v>9.0231640327000004</v>
-      </c>
-      <c r="D29" s="5">
-        <v>-79.531512919999997</v>
-      </c>
-      <c r="E29" s="4">
+        <v>9.0231949999999994</v>
+      </c>
+      <c r="C29" s="6">
+        <v>9.0231724632799999</v>
+      </c>
+      <c r="D29" s="7">
+        <v>-79.531519071000005</v>
+      </c>
+      <c r="E29" s="6">
         <v>1</v>
       </c>
-      <c r="F29" s="8">
-        <v>1</v>
-      </c>
-      <c r="G29" s="8">
+      <c r="F29" s="9">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9">
         <v>36</v>
       </c>
-      <c r="H29" s="5">
-        <v>31</v>
+      <c r="H29" s="7">
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>-79.531502000000003</v>
+        <v>-79.531505999999993</v>
       </c>
       <c r="B30" s="3">
-        <v>9.0231720000000006</v>
-      </c>
-      <c r="C30" s="6">
-        <v>9.0231570837700001</v>
-      </c>
-      <c r="D30" s="7">
-        <v>-79.531507849999997</v>
-      </c>
-      <c r="E30" s="6">
+        <v>9.0231820000000003</v>
+      </c>
+      <c r="C30" s="4">
+        <v>9.0231640327000004</v>
+      </c>
+      <c r="D30" s="5">
+        <v>-79.531512919999997</v>
+      </c>
+      <c r="E30" s="4">
         <v>1</v>
       </c>
-      <c r="F30" s="9">
-        <v>2</v>
-      </c>
-      <c r="G30" s="9">
-        <v>37</v>
-      </c>
-      <c r="H30" s="7">
-        <v>32</v>
+      <c r="F30" s="8">
+        <v>1</v>
+      </c>
+      <c r="G30" s="8">
+        <v>36</v>
+      </c>
+      <c r="H30" s="5">
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>-79.531497000000002</v>
+        <v>-79.531502000000003</v>
       </c>
       <c r="B31" s="3">
-        <v>9.0231650000000005</v>
-      </c>
-      <c r="C31" s="4">
-        <v>9.0231554788799997</v>
-      </c>
-      <c r="D31" s="5">
-        <v>-79.531506679000003</v>
-      </c>
-      <c r="E31" s="4">
+        <v>9.0231720000000006</v>
+      </c>
+      <c r="C31" s="6">
+        <v>9.0231570837700001</v>
+      </c>
+      <c r="D31" s="7">
+        <v>-79.531507849999997</v>
+      </c>
+      <c r="E31" s="6">
         <v>1</v>
       </c>
-      <c r="F31" s="8">
-        <v>3</v>
-      </c>
-      <c r="G31" s="8">
+      <c r="F31" s="9">
+        <v>2</v>
+      </c>
+      <c r="G31" s="9">
         <v>37</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="7">
         <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>-79.531495000000007</v>
+        <v>-79.531497000000002</v>
       </c>
       <c r="B32" s="3">
-        <v>9.0231639999999995</v>
-      </c>
-      <c r="C32" s="6">
-        <v>9.0231561314800004</v>
-      </c>
-      <c r="D32" s="7">
-        <v>-79.531507155200003</v>
-      </c>
-      <c r="E32" s="6">
+        <v>9.0231650000000005</v>
+      </c>
+      <c r="C32" s="4">
+        <v>9.0231554788799997</v>
+      </c>
+      <c r="D32" s="5">
+        <v>-79.531506679000003</v>
+      </c>
+      <c r="E32" s="4">
         <v>1</v>
       </c>
-      <c r="F32" s="9">
-        <v>2</v>
-      </c>
-      <c r="G32" s="9">
+      <c r="F32" s="8">
+        <v>3</v>
+      </c>
+      <c r="G32" s="8">
         <v>37</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="5">
         <v>32</v>
       </c>
     </row>
@@ -8622,24 +8686,24 @@
         <v>-79.531495000000007</v>
       </c>
       <c r="B33" s="3">
-        <v>9.0231650000000005</v>
-      </c>
-      <c r="C33" s="4">
-        <v>9.0231554788799997</v>
-      </c>
-      <c r="D33" s="5">
-        <v>-79.531506679000003</v>
-      </c>
-      <c r="E33" s="4">
+        <v>9.0231639999999995</v>
+      </c>
+      <c r="C33" s="6">
+        <v>9.0231561314800004</v>
+      </c>
+      <c r="D33" s="7">
+        <v>-79.531507155200003</v>
+      </c>
+      <c r="E33" s="6">
         <v>1</v>
       </c>
-      <c r="F33" s="8">
-        <v>3</v>
-      </c>
-      <c r="G33" s="8">
+      <c r="F33" s="9">
+        <v>2</v>
+      </c>
+      <c r="G33" s="9">
         <v>37</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="7">
         <v>32</v>
       </c>
     </row>
@@ -8648,24 +8712,24 @@
         <v>-79.531495000000007</v>
       </c>
       <c r="B34" s="3">
-        <v>9.0231639999999995</v>
-      </c>
-      <c r="C34" s="6">
-        <v>9.0231548262800008</v>
-      </c>
-      <c r="D34" s="7">
-        <v>-79.531506202900005</v>
-      </c>
-      <c r="E34" s="6">
+        <v>9.0231650000000005</v>
+      </c>
+      <c r="C34" s="4">
+        <v>9.0231554788799997</v>
+      </c>
+      <c r="D34" s="5">
+        <v>-79.531506679000003</v>
+      </c>
+      <c r="E34" s="4">
         <v>1</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="8">
         <v>3</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="8">
         <v>37</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="5">
         <v>32</v>
       </c>
     </row>
@@ -8674,24 +8738,24 @@
         <v>-79.531495000000007</v>
       </c>
       <c r="B35" s="3">
-        <v>9.0231630000000003</v>
-      </c>
-      <c r="C35" s="4">
-        <v>9.0231535210799994</v>
-      </c>
-      <c r="D35" s="5">
-        <v>-79.531505250600006</v>
-      </c>
-      <c r="E35" s="4">
+        <v>9.0231639999999995</v>
+      </c>
+      <c r="C35" s="6">
+        <v>9.0231548262800008</v>
+      </c>
+      <c r="D35" s="7">
+        <v>-79.531506202900005</v>
+      </c>
+      <c r="E35" s="6">
         <v>1</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="9">
         <v>3</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="9">
         <v>37</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="7">
         <v>32</v>
       </c>
     </row>
@@ -8700,32 +8764,58 @@
         <v>-79.531495000000007</v>
       </c>
       <c r="B36" s="3">
-        <v>9.023161</v>
-      </c>
-      <c r="C36" s="6">
-        <v>9.0231517397300003</v>
-      </c>
-      <c r="D36" s="7">
-        <v>-79.531503950900003</v>
-      </c>
-      <c r="E36" s="6">
+        <v>9.0231630000000003</v>
+      </c>
+      <c r="C36" s="4">
+        <v>9.0231535210799994</v>
+      </c>
+      <c r="D36" s="5">
+        <v>-79.531505250600006</v>
+      </c>
+      <c r="E36" s="4">
         <v>1</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="8">
         <v>3</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="8">
         <v>37</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="5">
         <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
+        <v>-79.531495000000007</v>
+      </c>
+      <c r="B37" s="3">
+        <v>9.023161</v>
+      </c>
+      <c r="C37" s="6">
+        <v>9.0231517397300003</v>
+      </c>
+      <c r="D37" s="7">
+        <v>-79.531503950900003</v>
+      </c>
+      <c r="E37" s="6">
+        <v>1</v>
+      </c>
+      <c r="F37" s="9">
+        <v>3</v>
+      </c>
+      <c r="G37" s="9">
+        <v>37</v>
+      </c>
+      <c r="H37" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
         <v>-79.531493999999995</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B38" s="3">
         <v>9.0231589999999997</v>
       </c>
     </row>
@@ -8736,869 +8826,869 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A825C5-9262-4B36-A685-A82D4EAC4B44}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:H34"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3">
-        <v>-79.531499999999994</v>
-      </c>
-      <c r="B1" s="3">
-        <v>9.0231510000000004</v>
-      </c>
-      <c r="C1" s="4">
-        <v>9.0231624989599997</v>
-      </c>
-      <c r="D1" s="5">
-        <v>-79.531533457600005</v>
-      </c>
-      <c r="E1" s="4">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="8">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8">
-        <v>35</v>
-      </c>
-      <c r="H1" s="5">
-        <v>32</v>
+      <c r="G1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>-79.531509</v>
+        <v>-79.531499999999994</v>
       </c>
       <c r="B2" s="3">
-        <v>9.0231399999999997</v>
-      </c>
-      <c r="C2" s="6">
-        <v>9.0231530097100006</v>
-      </c>
-      <c r="D2" s="7">
-        <v>-79.531542186899998</v>
-      </c>
-      <c r="E2" s="6">
-        <v>2</v>
-      </c>
-      <c r="F2" s="9">
-        <v>4</v>
-      </c>
-      <c r="G2" s="9">
-        <v>34</v>
-      </c>
-      <c r="H2" s="7">
+        <v>9.0231510000000004</v>
+      </c>
+      <c r="C2" s="4">
+        <v>9.0231624989599997</v>
+      </c>
+      <c r="D2" s="5">
+        <v>-79.531533457600005</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8">
+        <v>3</v>
+      </c>
+      <c r="G2" s="8">
+        <v>35</v>
+      </c>
+      <c r="H2" s="5">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>-79.531514999999999</v>
+        <v>-79.531509</v>
       </c>
       <c r="B3" s="3">
-        <v>9.0231279999999998</v>
-      </c>
-      <c r="C3" s="4">
-        <v>9.0231421124200004</v>
-      </c>
-      <c r="D3" s="5">
-        <v>-79.531552211499999</v>
-      </c>
-      <c r="E3" s="4">
+        <v>9.0231399999999997</v>
+      </c>
+      <c r="C3" s="6">
+        <v>9.0231530097100006</v>
+      </c>
+      <c r="D3" s="7">
+        <v>-79.531542186899998</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2</v>
+      </c>
+      <c r="F3" s="9">
         <v>4</v>
       </c>
-      <c r="F3" s="8">
-        <v>3</v>
-      </c>
-      <c r="G3" s="8">
+      <c r="G3" s="9">
+        <v>34</v>
+      </c>
+      <c r="H3" s="7">
         <v>32</v>
-      </c>
-      <c r="H3" s="5">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>-79.531525999999999</v>
+        <v>-79.531514999999999</v>
       </c>
       <c r="B4" s="3">
-        <v>9.0231180000000002</v>
-      </c>
-      <c r="C4" s="6">
-        <v>9.0231317133999998</v>
-      </c>
-      <c r="D4" s="7">
-        <v>-79.531561777799993</v>
-      </c>
-      <c r="E4" s="6">
-        <v>5</v>
-      </c>
-      <c r="F4" s="9">
+        <v>9.0231279999999998</v>
+      </c>
+      <c r="C4" s="4">
+        <v>9.0231421124200004</v>
+      </c>
+      <c r="D4" s="5">
+        <v>-79.531552211499999</v>
+      </c>
+      <c r="E4" s="4">
+        <v>4</v>
+      </c>
+      <c r="F4" s="8">
         <v>3</v>
       </c>
-      <c r="G4" s="9">
-        <v>31</v>
-      </c>
-      <c r="H4" s="7">
+      <c r="G4" s="8">
+        <v>32</v>
+      </c>
+      <c r="H4" s="5">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>-79.531536000000003</v>
+        <v>-79.531525999999999</v>
       </c>
       <c r="B5" s="3">
-        <v>9.0231080000000006</v>
-      </c>
-      <c r="C5" s="4">
-        <v>9.0231208161099996</v>
-      </c>
-      <c r="D5" s="5">
-        <v>-79.531571802399995</v>
-      </c>
-      <c r="E5" s="4">
-        <v>7</v>
-      </c>
-      <c r="F5" s="8">
+        <v>9.0231180000000002</v>
+      </c>
+      <c r="C5" s="6">
+        <v>9.0231317133999998</v>
+      </c>
+      <c r="D5" s="7">
+        <v>-79.531561777799993</v>
+      </c>
+      <c r="E5" s="6">
+        <v>5</v>
+      </c>
+      <c r="F5" s="9">
         <v>3</v>
       </c>
-      <c r="G5" s="8">
-        <v>30</v>
-      </c>
-      <c r="H5" s="5">
-        <v>30</v>
+      <c r="G5" s="9">
+        <v>31</v>
+      </c>
+      <c r="H5" s="7">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>-79.531547000000003</v>
+        <v>-79.531536000000003</v>
       </c>
       <c r="B6" s="3">
-        <v>9.0230979999999992</v>
-      </c>
-      <c r="C6" s="6">
-        <v>9.02310946393</v>
-      </c>
-      <c r="D6" s="7">
-        <v>-79.531582245400003</v>
-      </c>
-      <c r="E6" s="6">
-        <v>9</v>
-      </c>
-      <c r="F6" s="9">
+        <v>9.0231080000000006</v>
+      </c>
+      <c r="C6" s="4">
+        <v>9.0231208161099996</v>
+      </c>
+      <c r="D6" s="5">
+        <v>-79.531571802399995</v>
+      </c>
+      <c r="E6" s="4">
+        <v>7</v>
+      </c>
+      <c r="F6" s="8">
         <v>3</v>
       </c>
-      <c r="G6" s="9">
-        <v>28</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="G6" s="8">
+        <v>30</v>
+      </c>
+      <c r="H6" s="5">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>-79.531559999999999</v>
+        <v>-79.531547000000003</v>
       </c>
       <c r="B7" s="3">
-        <v>9.0230890000000006</v>
-      </c>
-      <c r="C7" s="4">
-        <v>9.0230991082800003</v>
-      </c>
-      <c r="D7" s="5">
-        <v>-79.531591771799995</v>
-      </c>
-      <c r="E7" s="4">
-        <v>10</v>
-      </c>
-      <c r="F7" s="8">
+        <v>9.0230979999999992</v>
+      </c>
+      <c r="C7" s="6">
+        <v>9.02310946393</v>
+      </c>
+      <c r="D7" s="7">
+        <v>-79.531582245400003</v>
+      </c>
+      <c r="E7" s="6">
+        <v>9</v>
+      </c>
+      <c r="F7" s="9">
         <v>3</v>
       </c>
-      <c r="G7" s="8">
-        <v>26</v>
-      </c>
-      <c r="H7" s="5">
-        <v>29</v>
+      <c r="G7" s="9">
+        <v>28</v>
+      </c>
+      <c r="H7" s="7">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>-79.531571</v>
+        <v>-79.531559999999999</v>
       </c>
       <c r="B8" s="3">
-        <v>9.0230800000000002</v>
-      </c>
-      <c r="C8" s="6">
-        <v>9.0230897491499995</v>
-      </c>
-      <c r="D8" s="7">
-        <v>-79.531600381399997</v>
-      </c>
-      <c r="E8" s="6">
-        <v>12</v>
-      </c>
-      <c r="F8" s="9">
+        <v>9.0230890000000006</v>
+      </c>
+      <c r="C8" s="4">
+        <v>9.0230991082800003</v>
+      </c>
+      <c r="D8" s="5">
+        <v>-79.531591771799995</v>
+      </c>
+      <c r="E8" s="4">
+        <v>10</v>
+      </c>
+      <c r="F8" s="8">
         <v>3</v>
       </c>
-      <c r="G8" s="9">
-        <v>25</v>
-      </c>
-      <c r="H8" s="7">
+      <c r="G8" s="8">
+        <v>26</v>
+      </c>
+      <c r="H8" s="5">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>-79.531580000000005</v>
+        <v>-79.531571</v>
       </c>
       <c r="B9" s="3">
-        <v>9.0230709999999998</v>
-      </c>
-      <c r="C9" s="4">
-        <v>9.0230803900299996</v>
-      </c>
-      <c r="D9" s="5">
-        <v>-79.531608990999999</v>
-      </c>
-      <c r="E9" s="4">
-        <v>13</v>
-      </c>
-      <c r="F9" s="8">
+        <v>9.0230800000000002</v>
+      </c>
+      <c r="C9" s="6">
+        <v>9.0230897491499995</v>
+      </c>
+      <c r="D9" s="7">
+        <v>-79.531600381399997</v>
+      </c>
+      <c r="E9" s="6">
+        <v>12</v>
+      </c>
+      <c r="F9" s="9">
         <v>3</v>
       </c>
-      <c r="G9" s="8">
-        <v>24</v>
-      </c>
-      <c r="H9" s="5">
-        <v>28</v>
+      <c r="G9" s="9">
+        <v>25</v>
+      </c>
+      <c r="H9" s="7">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>-79.531588999999997</v>
+        <v>-79.531580000000005</v>
       </c>
       <c r="B10" s="3">
-        <v>9.0230619999999995</v>
-      </c>
-      <c r="C10" s="6">
-        <v>9.0230689511000008</v>
-      </c>
-      <c r="D10" s="7">
-        <v>-79.531619513799996</v>
-      </c>
-      <c r="E10" s="6">
-        <v>15</v>
-      </c>
-      <c r="F10" s="9">
-        <v>2</v>
-      </c>
-      <c r="G10" s="9">
-        <v>23</v>
-      </c>
-      <c r="H10" s="7">
+        <v>9.0230709999999998</v>
+      </c>
+      <c r="C10" s="4">
+        <v>9.0230803900299996</v>
+      </c>
+      <c r="D10" s="5">
+        <v>-79.531608990999999</v>
+      </c>
+      <c r="E10" s="4">
+        <v>13</v>
+      </c>
+      <c r="F10" s="8">
+        <v>3</v>
+      </c>
+      <c r="G10" s="8">
+        <v>24</v>
+      </c>
+      <c r="H10" s="5">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>-79.531599999999997</v>
+        <v>-79.531588999999997</v>
       </c>
       <c r="B11" s="3">
-        <v>9.0230510000000006</v>
-      </c>
-      <c r="C11" s="4">
-        <v>9.0230580538100007</v>
-      </c>
-      <c r="D11" s="5">
-        <v>-79.531629538399997</v>
-      </c>
-      <c r="E11" s="4">
-        <v>16</v>
-      </c>
-      <c r="F11" s="8">
+        <v>9.0230619999999995</v>
+      </c>
+      <c r="C11" s="6">
+        <v>9.0230689511000008</v>
+      </c>
+      <c r="D11" s="7">
+        <v>-79.531619513799996</v>
+      </c>
+      <c r="E11" s="6">
+        <v>15</v>
+      </c>
+      <c r="F11" s="9">
         <v>2</v>
       </c>
-      <c r="G11" s="8">
-        <v>21</v>
-      </c>
-      <c r="H11" s="5">
-        <v>27</v>
+      <c r="G11" s="9">
+        <v>23</v>
+      </c>
+      <c r="H11" s="7">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>-79.531610999999998</v>
+        <v>-79.531599999999997</v>
       </c>
       <c r="B12" s="3">
-        <v>9.0230409999999992</v>
-      </c>
-      <c r="C12" s="6">
-        <v>9.0230460298700006</v>
-      </c>
-      <c r="D12" s="7">
-        <v>-79.531640599499994</v>
-      </c>
-      <c r="E12" s="6">
-        <v>18</v>
-      </c>
-      <c r="F12" s="9">
+        <v>9.0230510000000006</v>
+      </c>
+      <c r="C12" s="4">
+        <v>9.0230580538100007</v>
+      </c>
+      <c r="D12" s="5">
+        <v>-79.531629538399997</v>
+      </c>
+      <c r="E12" s="4">
+        <v>16</v>
+      </c>
+      <c r="F12" s="8">
         <v>2</v>
       </c>
-      <c r="G12" s="9">
-        <v>20</v>
-      </c>
-      <c r="H12" s="7">
+      <c r="G12" s="8">
+        <v>21</v>
+      </c>
+      <c r="H12" s="5">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>-79.531621000000001</v>
+        <v>-79.531610999999998</v>
       </c>
       <c r="B13" s="3">
-        <v>9.023028</v>
-      </c>
-      <c r="C13" s="4">
-        <v>9.02303454756</v>
-      </c>
-      <c r="D13" s="5">
-        <v>-79.531651162200006</v>
-      </c>
-      <c r="E13" s="4">
+        <v>9.0230409999999992</v>
+      </c>
+      <c r="C13" s="6">
+        <v>9.0230460298700006</v>
+      </c>
+      <c r="D13" s="7">
+        <v>-79.531640599499994</v>
+      </c>
+      <c r="E13" s="6">
+        <v>18</v>
+      </c>
+      <c r="F13" s="9">
+        <v>2</v>
+      </c>
+      <c r="G13" s="9">
         <v>20</v>
       </c>
-      <c r="F13" s="8">
-        <v>3</v>
-      </c>
-      <c r="G13" s="8">
-        <v>18</v>
-      </c>
-      <c r="H13" s="5">
+      <c r="H13" s="7">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>-79.531631000000004</v>
+        <v>-79.531621000000001</v>
       </c>
       <c r="B14" s="3">
-        <v>9.0230160000000001</v>
-      </c>
-      <c r="C14" s="6">
-        <v>9.0230235635200007</v>
-      </c>
-      <c r="D14" s="7">
-        <v>-79.531661266599997</v>
-      </c>
-      <c r="E14" s="6">
-        <v>21</v>
-      </c>
-      <c r="F14" s="9">
+        <v>9.023028</v>
+      </c>
+      <c r="C14" s="4">
+        <v>9.02303454756</v>
+      </c>
+      <c r="D14" s="5">
+        <v>-79.531651162200006</v>
+      </c>
+      <c r="E14" s="4">
+        <v>20</v>
+      </c>
+      <c r="F14" s="8">
         <v>3</v>
       </c>
-      <c r="G14" s="9">
-        <v>17</v>
-      </c>
-      <c r="H14" s="7">
+      <c r="G14" s="8">
+        <v>18</v>
+      </c>
+      <c r="H14" s="5">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>-79.531639999999996</v>
+        <v>-79.531631000000004</v>
       </c>
       <c r="B15" s="3">
-        <v>9.0230040000000002</v>
-      </c>
-      <c r="C15" s="4">
-        <v>9.0230152009199998</v>
-      </c>
-      <c r="D15" s="5">
-        <v>-79.531668959499996</v>
-      </c>
-      <c r="E15" s="4">
-        <v>22</v>
-      </c>
-      <c r="F15" s="8">
+        <v>9.0230160000000001</v>
+      </c>
+      <c r="C15" s="6">
+        <v>9.0230235635200007</v>
+      </c>
+      <c r="D15" s="7">
+        <v>-79.531661266599997</v>
+      </c>
+      <c r="E15" s="6">
+        <v>21</v>
+      </c>
+      <c r="F15" s="9">
         <v>3</v>
       </c>
-      <c r="G15" s="8">
-        <v>16</v>
-      </c>
-      <c r="H15" s="5">
-        <v>26</v>
+      <c r="G15" s="9">
+        <v>17</v>
+      </c>
+      <c r="H15" s="7">
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>-79.531647000000007</v>
+        <v>-79.531639999999996</v>
       </c>
       <c r="B16" s="3">
-        <v>9.0229949999999999</v>
-      </c>
-      <c r="C16" s="6">
-        <v>9.0230058417999999</v>
-      </c>
-      <c r="D16" s="7">
-        <v>-79.531677569099998</v>
-      </c>
-      <c r="E16" s="6">
-        <v>24</v>
-      </c>
-      <c r="F16" s="9">
+        <v>9.0230040000000002</v>
+      </c>
+      <c r="C16" s="4">
+        <v>9.0230152009199998</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-79.531668959499996</v>
+      </c>
+      <c r="E16" s="4">
+        <v>22</v>
+      </c>
+      <c r="F16" s="8">
         <v>3</v>
       </c>
-      <c r="G16" s="9">
-        <v>15</v>
-      </c>
-      <c r="H16" s="7">
+      <c r="G16" s="8">
+        <v>16</v>
+      </c>
+      <c r="H16" s="5">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>-79.531655999999998</v>
+        <v>-79.531647000000007</v>
       </c>
       <c r="B17" s="3">
-        <v>9.0229859999999995</v>
-      </c>
-      <c r="C17" s="4">
-        <v>9.0229965260499991</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-79.531686138799998</v>
-      </c>
-      <c r="E17" s="4">
-        <v>25</v>
-      </c>
-      <c r="F17" s="8">
+        <v>9.0229949999999999</v>
+      </c>
+      <c r="C17" s="6">
+        <v>9.0230058417999999</v>
+      </c>
+      <c r="D17" s="7">
+        <v>-79.531677569099998</v>
+      </c>
+      <c r="E17" s="6">
+        <v>24</v>
+      </c>
+      <c r="F17" s="9">
         <v>3</v>
       </c>
-      <c r="G17" s="8">
-        <v>14</v>
-      </c>
-      <c r="H17" s="5">
+      <c r="G17" s="9">
+        <v>15</v>
+      </c>
+      <c r="H17" s="7">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>-79.531666000000001</v>
+        <v>-79.531655999999998</v>
       </c>
       <c r="B18" s="3">
-        <v>9.0229780000000002</v>
-      </c>
-      <c r="C18" s="6">
-        <v>9.0229861703999994</v>
-      </c>
-      <c r="D18" s="7">
-        <v>-79.531695665200004</v>
-      </c>
-      <c r="E18" s="6">
-        <v>27</v>
-      </c>
-      <c r="F18" s="9">
-        <v>2</v>
-      </c>
-      <c r="G18" s="9">
-        <v>12</v>
-      </c>
-      <c r="H18" s="7">
+        <v>9.0229859999999995</v>
+      </c>
+      <c r="C18" s="4">
+        <v>9.0229965260499991</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-79.531686138799998</v>
+      </c>
+      <c r="E18" s="4">
         <v>25</v>
+      </c>
+      <c r="F18" s="8">
+        <v>3</v>
+      </c>
+      <c r="G18" s="8">
+        <v>14</v>
+      </c>
+      <c r="H18" s="5">
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>-79.531677000000002</v>
+        <v>-79.531666000000001</v>
       </c>
       <c r="B19" s="3">
-        <v>9.0229689999999998</v>
-      </c>
-      <c r="C19" s="4">
-        <v>9.0229758147499997</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-79.531705191499995</v>
-      </c>
-      <c r="E19" s="4">
-        <v>28</v>
-      </c>
-      <c r="F19" s="8">
+        <v>9.0229780000000002</v>
+      </c>
+      <c r="C19" s="6">
+        <v>9.0229861703999994</v>
+      </c>
+      <c r="D19" s="7">
+        <v>-79.531695665200004</v>
+      </c>
+      <c r="E19" s="6">
+        <v>27</v>
+      </c>
+      <c r="F19" s="9">
         <v>2</v>
       </c>
-      <c r="G19" s="8">
-        <v>11</v>
-      </c>
-      <c r="H19" s="5">
-        <v>24</v>
+      <c r="G19" s="9">
+        <v>12</v>
+      </c>
+      <c r="H19" s="7">
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>-79.531688000000003</v>
+        <v>-79.531677000000002</v>
       </c>
       <c r="B20" s="3">
-        <v>9.0229599999999994</v>
-      </c>
-      <c r="C20" s="6">
-        <v>9.0229654590999999</v>
-      </c>
-      <c r="D20" s="7">
-        <v>-79.5317147178</v>
-      </c>
-      <c r="E20" s="6">
-        <v>30</v>
-      </c>
-      <c r="F20" s="9">
+        <v>9.0229689999999998</v>
+      </c>
+      <c r="C20" s="4">
+        <v>9.0229758147499997</v>
+      </c>
+      <c r="D20" s="5">
+        <v>-79.531705191499995</v>
+      </c>
+      <c r="E20" s="4">
+        <v>28</v>
+      </c>
+      <c r="F20" s="8">
         <v>2</v>
       </c>
-      <c r="G20" s="9">
-        <v>9</v>
-      </c>
-      <c r="H20" s="7">
+      <c r="G20" s="8">
+        <v>11</v>
+      </c>
+      <c r="H20" s="5">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>-79.531699000000003</v>
+        <v>-79.531688000000003</v>
       </c>
       <c r="B21" s="3">
-        <v>9.0229510000000008</v>
-      </c>
-      <c r="C21" s="4">
-        <v>9.02295360866</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-79.531725619300005</v>
-      </c>
-      <c r="E21" s="4">
-        <v>32</v>
-      </c>
-      <c r="F21" s="8">
-        <v>1</v>
-      </c>
-      <c r="G21" s="8">
-        <v>8</v>
-      </c>
-      <c r="H21" s="5">
-        <v>23</v>
+        <v>9.0229599999999994</v>
+      </c>
+      <c r="C21" s="6">
+        <v>9.0229654590999999</v>
+      </c>
+      <c r="D21" s="7">
+        <v>-79.5317147178</v>
+      </c>
+      <c r="E21" s="6">
+        <v>30</v>
+      </c>
+      <c r="F21" s="9">
+        <v>2</v>
+      </c>
+      <c r="G21" s="9">
+        <v>9</v>
+      </c>
+      <c r="H21" s="7">
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>-79.531712999999996</v>
+        <v>-79.531699000000003</v>
       </c>
       <c r="B22" s="3">
-        <v>9.0229420000000005</v>
-      </c>
-      <c r="C22" s="6">
-        <v>9.0229422998600004</v>
-      </c>
-      <c r="D22" s="7">
-        <v>-79.531736022399997</v>
-      </c>
-      <c r="E22" s="6">
-        <v>34</v>
-      </c>
-      <c r="F22" s="9">
+        <v>9.0229510000000008</v>
+      </c>
+      <c r="C22" s="4">
+        <v>9.02295360866</v>
+      </c>
+      <c r="D22" s="5">
+        <v>-79.531725619300005</v>
+      </c>
+      <c r="E22" s="4">
+        <v>32</v>
+      </c>
+      <c r="F22" s="8">
         <v>1</v>
       </c>
-      <c r="G22" s="9">
-        <v>6</v>
-      </c>
-      <c r="H22" s="7">
-        <v>22</v>
+      <c r="G22" s="8">
+        <v>8</v>
+      </c>
+      <c r="H22" s="5">
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>-79.531727000000004</v>
+        <v>-79.531712999999996</v>
       </c>
       <c r="B23" s="3">
-        <v>9.0229339999999993</v>
-      </c>
-      <c r="C23" s="4">
-        <v>9.0229319875900007</v>
-      </c>
-      <c r="D23" s="5">
-        <v>-79.5317455088</v>
-      </c>
-      <c r="E23" s="4">
-        <v>35</v>
-      </c>
-      <c r="F23" s="8">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8">
-        <v>4</v>
-      </c>
-      <c r="H23" s="5">
-        <v>21</v>
+        <v>9.0229420000000005</v>
+      </c>
+      <c r="C23" s="6">
+        <v>9.0229422998600004</v>
+      </c>
+      <c r="D23" s="7">
+        <v>-79.531736022399997</v>
+      </c>
+      <c r="E23" s="6">
+        <v>34</v>
+      </c>
+      <c r="F23" s="9">
+        <v>1</v>
+      </c>
+      <c r="G23" s="9">
+        <v>6</v>
+      </c>
+      <c r="H23" s="7">
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>-79.531739000000002</v>
+        <v>-79.531727000000004</v>
       </c>
       <c r="B24" s="3">
-        <v>9.022926</v>
-      </c>
-      <c r="C24" s="6">
-        <v>9.0229211336699997</v>
-      </c>
-      <c r="D24" s="7">
-        <v>-79.5317554935</v>
-      </c>
-      <c r="E24" s="6">
-        <v>37</v>
-      </c>
-      <c r="F24" s="9">
+        <v>9.0229339999999993</v>
+      </c>
+      <c r="C24" s="4">
+        <v>9.0229319875900007</v>
+      </c>
+      <c r="D24" s="5">
+        <v>-79.5317455088</v>
+      </c>
+      <c r="E24" s="4">
+        <v>35</v>
+      </c>
+      <c r="F24" s="8">
         <v>0</v>
       </c>
-      <c r="G24" s="9">
-        <v>3</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="G24" s="8">
+        <v>4</v>
+      </c>
+      <c r="H24" s="5">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>-79.531751</v>
+        <v>-79.531739000000002</v>
       </c>
       <c r="B25" s="3">
-        <v>9.0229169999999996</v>
-      </c>
-      <c r="C25" s="4">
-        <v>9.0229106912700008</v>
-      </c>
-      <c r="D25" s="5">
-        <v>-79.531765099699996</v>
-      </c>
-      <c r="E25" s="4">
-        <v>38</v>
-      </c>
-      <c r="F25" s="8">
+        <v>9.022926</v>
+      </c>
+      <c r="C25" s="6">
+        <v>9.0229211336699997</v>
+      </c>
+      <c r="D25" s="7">
+        <v>-79.5317554935</v>
+      </c>
+      <c r="E25" s="6">
+        <v>37</v>
+      </c>
+      <c r="F25" s="9">
         <v>0</v>
       </c>
-      <c r="G25" s="8">
-        <v>2</v>
-      </c>
-      <c r="H25" s="5">
-        <v>20</v>
+      <c r="G25" s="9">
+        <v>3</v>
+      </c>
+      <c r="H25" s="7">
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>-79.531760000000006</v>
+        <v>-79.531751</v>
       </c>
       <c r="B26" s="3">
-        <v>9.0229060000000008</v>
-      </c>
-      <c r="C26" s="6">
-        <v>9.0229002488700001</v>
-      </c>
-      <c r="D26" s="7">
-        <v>-79.531774705800004</v>
-      </c>
-      <c r="E26" s="6">
-        <v>40</v>
-      </c>
-      <c r="F26" s="9">
+        <v>9.0229169999999996</v>
+      </c>
+      <c r="C26" s="4">
+        <v>9.0229106912700008</v>
+      </c>
+      <c r="D26" s="5">
+        <v>-79.531765099699996</v>
+      </c>
+      <c r="E26" s="4">
+        <v>38</v>
+      </c>
+      <c r="F26" s="8">
         <v>0</v>
       </c>
-      <c r="G26" s="9">
-        <v>0</v>
-      </c>
-      <c r="H26" s="7">
+      <c r="G26" s="8">
+        <v>2</v>
+      </c>
+      <c r="H26" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>-79.531768999999997</v>
+        <v>-79.531760000000006</v>
       </c>
       <c r="B27" s="3">
-        <v>9.0228950000000001</v>
-      </c>
-      <c r="C27" s="4">
-        <v>9.0228907596100001</v>
-      </c>
-      <c r="D27" s="5">
-        <v>-79.531783435099996</v>
-      </c>
-      <c r="E27" s="4">
-        <v>41</v>
-      </c>
-      <c r="F27" s="8">
-        <v>1</v>
-      </c>
-      <c r="G27" s="8">
+        <v>9.0229060000000008</v>
+      </c>
+      <c r="C27" s="6">
+        <v>9.0229002488700001</v>
+      </c>
+      <c r="D27" s="7">
+        <v>-79.531774705800004</v>
+      </c>
+      <c r="E27" s="6">
+        <v>40</v>
+      </c>
+      <c r="F27" s="9">
         <v>0</v>
       </c>
-      <c r="H27" s="5">
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27" s="7">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>-79.531774999999996</v>
+        <v>-79.531768999999997</v>
       </c>
       <c r="B28" s="3">
-        <v>9.0228830000000002</v>
-      </c>
-      <c r="C28" s="6">
-        <v>9.0228818553799996</v>
-      </c>
-      <c r="D28" s="7">
-        <v>-79.531791626300006</v>
-      </c>
-      <c r="E28" s="6">
-        <v>42</v>
-      </c>
-      <c r="F28" s="9">
+        <v>9.0228950000000001</v>
+      </c>
+      <c r="C28" s="4">
+        <v>9.0228907596100001</v>
+      </c>
+      <c r="D28" s="5">
+        <v>-79.531783435099996</v>
+      </c>
+      <c r="E28" s="4">
+        <v>41</v>
+      </c>
+      <c r="F28" s="8">
         <v>1</v>
       </c>
-      <c r="G28" s="9">
-        <v>1</v>
-      </c>
-      <c r="H28" s="7">
+      <c r="G28" s="8">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>-79.531782000000007</v>
+        <v>-79.531774999999996</v>
       </c>
       <c r="B29" s="3">
-        <v>9.0228730000000006</v>
-      </c>
-      <c r="C29" s="4">
-        <v>9.0228761142200007</v>
-      </c>
-      <c r="D29" s="5">
-        <v>-79.531796907699999</v>
-      </c>
-      <c r="E29" s="4">
-        <v>43</v>
-      </c>
-      <c r="F29" s="8">
+        <v>9.0228830000000002</v>
+      </c>
+      <c r="C29" s="6">
+        <v>9.0228818553799996</v>
+      </c>
+      <c r="D29" s="7">
+        <v>-79.531791626300006</v>
+      </c>
+      <c r="E29" s="6">
+        <v>42</v>
+      </c>
+      <c r="F29" s="9">
         <v>1</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="9">
         <v>1</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="7">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>-79.531786999999994</v>
+        <v>-79.531782000000007</v>
       </c>
       <c r="B30" s="3">
-        <v>9.0228669999999997</v>
-      </c>
-      <c r="C30" s="6">
-        <v>9.0228734927800005</v>
-      </c>
-      <c r="D30" s="7">
-        <v>-79.531799319200005</v>
-      </c>
-      <c r="E30" s="6">
-        <v>44</v>
-      </c>
-      <c r="F30" s="9">
+        <v>9.0228730000000006</v>
+      </c>
+      <c r="C30" s="4">
+        <v>9.0228761142200007</v>
+      </c>
+      <c r="D30" s="5">
+        <v>-79.531796907699999</v>
+      </c>
+      <c r="E30" s="4">
+        <v>43</v>
+      </c>
+      <c r="F30" s="8">
         <v>1</v>
       </c>
-      <c r="G30" s="9">
-        <v>2</v>
-      </c>
-      <c r="H30" s="7">
+      <c r="G30" s="8">
+        <v>1</v>
+      </c>
+      <c r="H30" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>-79.531789000000003</v>
+        <v>-79.531786999999994</v>
       </c>
       <c r="B31" s="3">
-        <v>9.0228640000000002</v>
-      </c>
-      <c r="C31" s="4">
-        <v>9.0228734494000005</v>
-      </c>
-      <c r="D31" s="5">
-        <v>-79.531799359100006</v>
-      </c>
-      <c r="E31" s="4">
+        <v>9.0228669999999997</v>
+      </c>
+      <c r="C31" s="6">
+        <v>9.0228734927800005</v>
+      </c>
+      <c r="D31" s="7">
+        <v>-79.531799319200005</v>
+      </c>
+      <c r="E31" s="6">
         <v>44</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="9">
         <v>1</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="9">
         <v>2</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="7">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>-79.531788000000006</v>
+        <v>-79.531789000000003</v>
       </c>
       <c r="B32" s="3">
-        <v>9.0228629999999992</v>
-      </c>
-      <c r="C32" s="6">
-        <v>9.0228724094999997</v>
-      </c>
-      <c r="D32" s="7">
-        <v>-79.531800315699996</v>
-      </c>
-      <c r="E32" s="6">
+        <v>9.0228640000000002</v>
+      </c>
+      <c r="C32" s="4">
+        <v>9.0228734494000005</v>
+      </c>
+      <c r="D32" s="5">
+        <v>-79.531799359100006</v>
+      </c>
+      <c r="E32" s="4">
         <v>44</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="8">
         <v>1</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="8">
         <v>2</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>-79.531789000000003</v>
+        <v>-79.531788000000006</v>
       </c>
       <c r="B33" s="3">
-        <v>9.0228619999999999</v>
-      </c>
-      <c r="C33" s="4">
-        <v>9.0228729511400001</v>
-      </c>
-      <c r="D33" s="5">
-        <v>-79.5317998174</v>
-      </c>
-      <c r="E33" s="4">
+        <v>9.0228629999999992</v>
+      </c>
+      <c r="C33" s="6">
+        <v>9.0228724094999997</v>
+      </c>
+      <c r="D33" s="7">
+        <v>-79.531800315699996</v>
+      </c>
+      <c r="E33" s="6">
         <v>44</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="9">
         <v>1</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="9">
         <v>2</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="7">
         <v>20</v>
       </c>
     </row>
@@ -9607,32 +9697,58 @@
         <v>-79.531789000000003</v>
       </c>
       <c r="B34" s="3">
-        <v>9.0228629999999992</v>
-      </c>
-      <c r="C34" s="6">
-        <v>9.0228729945099992</v>
-      </c>
-      <c r="D34" s="7">
-        <v>-79.531799777499998</v>
-      </c>
-      <c r="E34" s="6">
+        <v>9.0228619999999999</v>
+      </c>
+      <c r="C34" s="4">
+        <v>9.0228729511400001</v>
+      </c>
+      <c r="D34" s="5">
+        <v>-79.5317998174</v>
+      </c>
+      <c r="E34" s="4">
         <v>44</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="8">
         <v>1</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="8">
         <v>2</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
+        <v>-79.531789000000003</v>
+      </c>
+      <c r="B35" s="3">
+        <v>9.0228629999999992</v>
+      </c>
+      <c r="C35" s="6">
+        <v>9.0228729945099992</v>
+      </c>
+      <c r="D35" s="7">
+        <v>-79.531799777499998</v>
+      </c>
+      <c r="E35" s="6">
+        <v>44</v>
+      </c>
+      <c r="F35" s="9">
+        <v>1</v>
+      </c>
+      <c r="G35" s="9">
+        <v>2</v>
+      </c>
+      <c r="H35" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
         <v>-79.531790000000001</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B36" s="3">
         <v>9.0228640000000002</v>
       </c>
     </row>
@@ -9643,402 +9759,402 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6CDE5D-D4E9-442A-9E7D-BC06AB4EE60D}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:H26"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3">
-        <v>-79.531792999999993</v>
-      </c>
-      <c r="B1" s="3">
-        <v>9.0228649999999995</v>
-      </c>
-      <c r="C1" s="4">
-        <v>9.0228766264000004</v>
-      </c>
-      <c r="D1" s="5">
-        <v>-79.531772076400003</v>
-      </c>
-      <c r="E1" s="4">
-        <v>44</v>
-      </c>
-      <c r="F1" s="8">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="8">
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5">
-        <v>19</v>
+      <c r="F1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>-79.531794000000005</v>
+        <v>-79.531792999999993</v>
       </c>
       <c r="B2" s="3">
-        <v>9.0228710000000003</v>
-      </c>
-      <c r="C2" s="6">
-        <v>9.0228893046500005</v>
-      </c>
-      <c r="D2" s="7">
-        <v>-79.531775330100004</v>
-      </c>
-      <c r="E2" s="6">
-        <v>43</v>
-      </c>
-      <c r="F2" s="9">
+        <v>9.0228649999999995</v>
+      </c>
+      <c r="C2" s="4">
+        <v>9.0228766264000004</v>
+      </c>
+      <c r="D2" s="5">
+        <v>-79.531772076400003</v>
+      </c>
+      <c r="E2" s="4">
+        <v>44</v>
+      </c>
+      <c r="F2" s="8">
         <v>0</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>2</v>
       </c>
-      <c r="H2" s="7">
-        <v>18</v>
+      <c r="H2" s="5">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>-79.531796</v>
+        <v>-79.531794000000005</v>
       </c>
       <c r="B3" s="3">
-        <v>9.0228839999999995</v>
-      </c>
-      <c r="C3" s="4">
-        <v>9.0229026803300005</v>
-      </c>
-      <c r="D3" s="5">
-        <v>-79.531778762800002</v>
-      </c>
-      <c r="E3" s="4">
-        <v>42</v>
-      </c>
-      <c r="F3" s="8">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8">
+        <v>9.0228710000000003</v>
+      </c>
+      <c r="C3" s="6">
+        <v>9.0228893046500005</v>
+      </c>
+      <c r="D3" s="7">
+        <v>-79.531775330100004</v>
+      </c>
+      <c r="E3" s="6">
+        <v>43</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
         <v>2</v>
       </c>
-      <c r="H3" s="5">
-        <v>17</v>
+      <c r="H3" s="7">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>-79.531796999999997</v>
+        <v>-79.531796</v>
       </c>
       <c r="B4" s="3">
-        <v>9.0228979999999996</v>
-      </c>
-      <c r="C4" s="6">
-        <v>9.0229165375699996</v>
-      </c>
-      <c r="D4" s="7">
-        <v>-79.531782319100003</v>
-      </c>
-      <c r="E4" s="6">
-        <v>41</v>
-      </c>
-      <c r="F4" s="9">
+        <v>9.0228839999999995</v>
+      </c>
+      <c r="C4" s="4">
+        <v>9.0229026803300005</v>
+      </c>
+      <c r="D4" s="5">
+        <v>-79.531778762800002</v>
+      </c>
+      <c r="E4" s="4">
+        <v>42</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
         <v>2</v>
       </c>
-      <c r="G4" s="9">
-        <v>2</v>
-      </c>
-      <c r="H4" s="7">
-        <v>16</v>
+      <c r="H4" s="5">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>-79.531800000000004</v>
+        <v>-79.531796999999997</v>
       </c>
       <c r="B5" s="3">
-        <v>9.0229119999999998</v>
-      </c>
-      <c r="C5" s="4">
-        <v>9.0229310922400003</v>
-      </c>
-      <c r="D5" s="5">
-        <v>-79.531786054400001</v>
-      </c>
-      <c r="E5" s="4">
+        <v>9.0228979999999996</v>
+      </c>
+      <c r="C5" s="6">
+        <v>9.0229165375699996</v>
+      </c>
+      <c r="D5" s="7">
+        <v>-79.531782319100003</v>
+      </c>
+      <c r="E5" s="6">
         <v>41</v>
       </c>
-      <c r="F5" s="8">
-        <v>4</v>
-      </c>
-      <c r="G5" s="8">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
-        <v>15</v>
+      <c r="F5" s="9">
+        <v>2</v>
+      </c>
+      <c r="G5" s="9">
+        <v>2</v>
+      </c>
+      <c r="H5" s="7">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>-79.531801999999999</v>
+        <v>-79.531800000000004</v>
       </c>
       <c r="B6" s="3">
-        <v>9.0229269999999993</v>
-      </c>
-      <c r="C6" s="6">
-        <v>9.0229444679200004</v>
-      </c>
-      <c r="D6" s="7">
-        <v>-79.531789487099999</v>
-      </c>
-      <c r="E6" s="6">
-        <v>40</v>
-      </c>
-      <c r="F6" s="9">
-        <v>5</v>
-      </c>
-      <c r="G6" s="9">
+        <v>9.0229119999999998</v>
+      </c>
+      <c r="C6" s="4">
+        <v>9.0229310922400003</v>
+      </c>
+      <c r="D6" s="5">
+        <v>-79.531786054400001</v>
+      </c>
+      <c r="E6" s="4">
+        <v>41</v>
+      </c>
+      <c r="F6" s="8">
+        <v>4</v>
+      </c>
+      <c r="G6" s="8">
         <v>1</v>
       </c>
-      <c r="H6" s="7">
-        <v>14</v>
+      <c r="H6" s="5">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>-79.531802999999996</v>
+        <v>-79.531801999999999</v>
       </c>
       <c r="B7" s="3">
-        <v>9.0229409999999994</v>
-      </c>
-      <c r="C7" s="4">
-        <v>9.0229592633600006</v>
-      </c>
-      <c r="D7" s="5">
-        <v>-79.531793284100004</v>
-      </c>
-      <c r="E7" s="4">
-        <v>39</v>
-      </c>
-      <c r="F7" s="8">
-        <v>6</v>
-      </c>
-      <c r="G7" s="8">
+        <v>9.0229269999999993</v>
+      </c>
+      <c r="C7" s="6">
+        <v>9.0229444679200004</v>
+      </c>
+      <c r="D7" s="7">
+        <v>-79.531789487099999</v>
+      </c>
+      <c r="E7" s="6">
+        <v>40</v>
+      </c>
+      <c r="F7" s="9">
+        <v>5</v>
+      </c>
+      <c r="G7" s="9">
         <v>1</v>
       </c>
-      <c r="H7" s="5">
-        <v>13</v>
+      <c r="H7" s="7">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>-79.531806000000003</v>
+        <v>-79.531802999999996</v>
       </c>
       <c r="B8" s="3">
-        <v>9.0229560000000006</v>
-      </c>
-      <c r="C8" s="6">
-        <v>9.0229724231699997</v>
-      </c>
-      <c r="D8" s="7">
-        <v>-79.531796661399994</v>
-      </c>
-      <c r="E8" s="6">
+        <v>9.0229409999999994</v>
+      </c>
+      <c r="C8" s="4">
+        <v>9.0229592633600006</v>
+      </c>
+      <c r="D8" s="5">
+        <v>-79.531793284100004</v>
+      </c>
+      <c r="E8" s="4">
         <v>39</v>
       </c>
-      <c r="F8" s="9">
-        <v>8</v>
-      </c>
-      <c r="G8" s="9">
+      <c r="F8" s="8">
+        <v>6</v>
+      </c>
+      <c r="G8" s="8">
         <v>1</v>
       </c>
-      <c r="H8" s="7">
-        <v>12</v>
+      <c r="H8" s="5">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>-79.531809999999993</v>
+        <v>-79.531806000000003</v>
       </c>
       <c r="B9" s="3">
-        <v>9.0229689999999998</v>
-      </c>
-      <c r="C9" s="4">
-        <v>9.0229865211900009</v>
-      </c>
-      <c r="D9" s="5">
-        <v>-79.531800279500004</v>
-      </c>
-      <c r="E9" s="4">
-        <v>38</v>
-      </c>
-      <c r="F9" s="8">
-        <v>9</v>
-      </c>
-      <c r="G9" s="8">
+        <v>9.0229560000000006</v>
+      </c>
+      <c r="C9" s="6">
+        <v>9.0229724231699997</v>
+      </c>
+      <c r="D9" s="7">
+        <v>-79.531796661399994</v>
+      </c>
+      <c r="E9" s="6">
+        <v>39</v>
+      </c>
+      <c r="F9" s="9">
+        <v>8</v>
+      </c>
+      <c r="G9" s="9">
         <v>1</v>
       </c>
-      <c r="H9" s="5">
-        <v>11</v>
+      <c r="H9" s="7">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>-79.531813999999997</v>
+        <v>-79.531809999999993</v>
       </c>
       <c r="B10" s="3">
-        <v>9.022983</v>
-      </c>
-      <c r="C10" s="6">
-        <v>9.0229999217800003</v>
-      </c>
-      <c r="D10" s="7">
-        <v>-79.531803718600003</v>
-      </c>
-      <c r="E10" s="6">
+        <v>9.0229689999999998</v>
+      </c>
+      <c r="C10" s="4">
+        <v>9.0229865211900009</v>
+      </c>
+      <c r="D10" s="5">
+        <v>-79.531800279500004</v>
+      </c>
+      <c r="E10" s="4">
         <v>38</v>
       </c>
-      <c r="F10" s="9">
-        <v>10</v>
-      </c>
-      <c r="G10" s="9">
+      <c r="F10" s="8">
+        <v>9</v>
+      </c>
+      <c r="G10" s="8">
         <v>1</v>
       </c>
-      <c r="H10" s="7">
-        <v>10</v>
+      <c r="H10" s="5">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>-79.531818999999999</v>
+        <v>-79.531813999999997</v>
       </c>
       <c r="B11" s="3">
-        <v>9.0229959999999991</v>
-      </c>
-      <c r="C11" s="4">
-        <v>9.0230133223600006</v>
-      </c>
-      <c r="D11" s="5">
-        <v>-79.531807157700001</v>
-      </c>
-      <c r="E11" s="4">
-        <v>37</v>
-      </c>
-      <c r="F11" s="8">
-        <v>12</v>
-      </c>
-      <c r="G11" s="8">
+        <v>9.022983</v>
+      </c>
+      <c r="C11" s="6">
+        <v>9.0229999217800003</v>
+      </c>
+      <c r="D11" s="7">
+        <v>-79.531803718600003</v>
+      </c>
+      <c r="E11" s="6">
+        <v>38</v>
+      </c>
+      <c r="F11" s="9">
+        <v>10</v>
+      </c>
+      <c r="G11" s="9">
         <v>1</v>
       </c>
-      <c r="H11" s="5">
-        <v>9</v>
+      <c r="H11" s="7">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>-79.531824</v>
+        <v>-79.531818999999999</v>
       </c>
       <c r="B12" s="3">
-        <v>9.0230090000000001</v>
-      </c>
-      <c r="C12" s="6">
-        <v>9.0230262414000002</v>
-      </c>
-      <c r="D12" s="7">
-        <v>-79.531810473199997</v>
-      </c>
-      <c r="E12" s="6">
+        <v>9.0229959999999991</v>
+      </c>
+      <c r="C12" s="4">
+        <v>9.0230133223600006</v>
+      </c>
+      <c r="D12" s="5">
+        <v>-79.531807157700001</v>
+      </c>
+      <c r="E12" s="4">
         <v>37</v>
       </c>
-      <c r="F12" s="9">
-        <v>13</v>
-      </c>
-      <c r="G12" s="9">
+      <c r="F12" s="8">
+        <v>12</v>
+      </c>
+      <c r="G12" s="8">
         <v>1</v>
       </c>
-      <c r="H12" s="7">
-        <v>8</v>
+      <c r="H12" s="5">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>-79.531827000000007</v>
+        <v>-79.531824</v>
       </c>
       <c r="B13" s="3">
-        <v>9.0230219999999992</v>
-      </c>
-      <c r="C13" s="4">
-        <v>9.0230391604300006</v>
-      </c>
-      <c r="D13" s="5">
-        <v>-79.531813788700006</v>
-      </c>
-      <c r="E13" s="4">
-        <v>36</v>
-      </c>
-      <c r="F13" s="8">
-        <v>14</v>
-      </c>
-      <c r="G13" s="8">
+        <v>9.0230090000000001</v>
+      </c>
+      <c r="C13" s="6">
+        <v>9.0230262414000002</v>
+      </c>
+      <c r="D13" s="7">
+        <v>-79.531810473199997</v>
+      </c>
+      <c r="E13" s="6">
+        <v>37</v>
+      </c>
+      <c r="F13" s="9">
+        <v>13</v>
+      </c>
+      <c r="G13" s="9">
         <v>1</v>
       </c>
-      <c r="H13" s="5">
-        <v>7</v>
+      <c r="H13" s="7">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>-79.531829999999999</v>
+        <v>-79.531827000000007</v>
       </c>
       <c r="B14" s="3">
-        <v>9.0230350000000001</v>
-      </c>
-      <c r="C14" s="6">
-        <v>9.0230527768899993</v>
-      </c>
-      <c r="D14" s="7">
-        <v>-79.531817283199999</v>
-      </c>
-      <c r="E14" s="6">
-        <v>35</v>
-      </c>
-      <c r="F14" s="9">
-        <v>15</v>
-      </c>
-      <c r="G14" s="9">
+        <v>9.0230219999999992</v>
+      </c>
+      <c r="C14" s="4">
+        <v>9.0230391604300006</v>
+      </c>
+      <c r="D14" s="5">
+        <v>-79.531813788700006</v>
+      </c>
+      <c r="E14" s="4">
+        <v>36</v>
+      </c>
+      <c r="F14" s="8">
+        <v>14</v>
+      </c>
+      <c r="G14" s="8">
         <v>1</v>
       </c>
-      <c r="H14" s="7">
-        <v>6</v>
+      <c r="H14" s="5">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>-79.531831999999994</v>
+        <v>-79.531829999999999</v>
       </c>
       <c r="B15" s="3">
-        <v>9.0230490000000003</v>
-      </c>
-      <c r="C15" s="4">
-        <v>9.0230668499999993</v>
-      </c>
-      <c r="D15" s="5">
-        <v>-79.531820894800006</v>
-      </c>
-      <c r="E15" s="4">
-        <v>34</v>
-      </c>
-      <c r="F15" s="8">
-        <v>16</v>
-      </c>
-      <c r="G15" s="8">
+        <v>9.0230350000000001</v>
+      </c>
+      <c r="C15" s="6">
+        <v>9.0230527768899993</v>
+      </c>
+      <c r="D15" s="7">
+        <v>-79.531817283199999</v>
+      </c>
+      <c r="E15" s="6">
+        <v>35</v>
+      </c>
+      <c r="F15" s="9">
+        <v>15</v>
+      </c>
+      <c r="G15" s="9">
         <v>1</v>
       </c>
-      <c r="H15" s="5">
-        <v>5</v>
+      <c r="H15" s="7">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10046,258 +10162,258 @@
         <v>-79.531831999999994</v>
       </c>
       <c r="B16" s="3">
-        <v>9.0230639999999998</v>
-      </c>
-      <c r="C16" s="6">
-        <v>9.0230806823300007</v>
-      </c>
-      <c r="D16" s="7">
-        <v>-79.531824444700007</v>
-      </c>
-      <c r="E16" s="6">
-        <v>33</v>
-      </c>
-      <c r="F16" s="9">
-        <v>17</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="7">
-        <v>4</v>
+        <v>9.0230490000000003</v>
+      </c>
+      <c r="C16" s="4">
+        <v>9.0230668499999993</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-79.531820894800006</v>
+      </c>
+      <c r="E16" s="4">
+        <v>34</v>
+      </c>
+      <c r="F16" s="8">
+        <v>16</v>
+      </c>
+      <c r="G16" s="8">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>-79.531830999999997</v>
+        <v>-79.531831999999994</v>
       </c>
       <c r="B17" s="3">
-        <v>9.0230789999999992</v>
-      </c>
-      <c r="C17" s="4">
-        <v>9.0230949962199993</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-79.531828118199996</v>
-      </c>
-      <c r="E17" s="4">
-        <v>32</v>
-      </c>
-      <c r="F17" s="8">
-        <v>19</v>
-      </c>
-      <c r="G17" s="8">
+        <v>9.0230639999999998</v>
+      </c>
+      <c r="C17" s="6">
+        <v>9.0230806823300007</v>
+      </c>
+      <c r="D17" s="7">
+        <v>-79.531824444700007</v>
+      </c>
+      <c r="E17" s="6">
+        <v>33</v>
+      </c>
+      <c r="F17" s="9">
+        <v>17</v>
+      </c>
+      <c r="G17" s="9">
         <v>0</v>
       </c>
-      <c r="H17" s="5">
-        <v>3</v>
+      <c r="H17" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>-79.531831999999994</v>
+        <v>-79.531830999999997</v>
       </c>
       <c r="B18" s="3">
-        <v>9.0230940000000004</v>
-      </c>
-      <c r="C18" s="6">
-        <v>9.0231083718999994</v>
-      </c>
-      <c r="D18" s="7">
-        <v>-79.531831550899994</v>
-      </c>
-      <c r="E18" s="6">
+        <v>9.0230789999999992</v>
+      </c>
+      <c r="C18" s="4">
+        <v>9.0230949962199993</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-79.531828118199996</v>
+      </c>
+      <c r="E18" s="4">
         <v>32</v>
       </c>
-      <c r="F18" s="9">
-        <v>20</v>
-      </c>
-      <c r="G18" s="9">
+      <c r="F18" s="8">
+        <v>19</v>
+      </c>
+      <c r="G18" s="8">
         <v>0</v>
       </c>
-      <c r="H18" s="7">
-        <v>2</v>
+      <c r="H18" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>-79.531833000000006</v>
+        <v>-79.531831999999994</v>
       </c>
       <c r="B19" s="3">
-        <v>9.0231080000000006</v>
-      </c>
-      <c r="C19" s="4">
-        <v>9.0231208093700008</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-79.531834742800001</v>
-      </c>
-      <c r="E19" s="4">
-        <v>31</v>
-      </c>
-      <c r="F19" s="8">
-        <v>21</v>
-      </c>
-      <c r="G19" s="8">
+        <v>9.0230940000000004</v>
+      </c>
+      <c r="C19" s="6">
+        <v>9.0231083718999994</v>
+      </c>
+      <c r="D19" s="7">
+        <v>-79.531831550899994</v>
+      </c>
+      <c r="E19" s="6">
+        <v>32</v>
+      </c>
+      <c r="F19" s="9">
+        <v>20</v>
+      </c>
+      <c r="G19" s="9">
         <v>0</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>-79.531834000000003</v>
+        <v>-79.531833000000006</v>
       </c>
       <c r="B20" s="3">
-        <v>9.0231209999999997</v>
-      </c>
-      <c r="C20" s="6">
-        <v>9.0231346666099999</v>
-      </c>
-      <c r="D20" s="7">
-        <v>-79.531838299100002</v>
-      </c>
-      <c r="E20" s="6">
-        <v>30</v>
-      </c>
-      <c r="F20" s="9">
-        <v>22</v>
-      </c>
-      <c r="G20" s="9">
+        <v>9.0231080000000006</v>
+      </c>
+      <c r="C20" s="4">
+        <v>9.0231208093700008</v>
+      </c>
+      <c r="D20" s="5">
+        <v>-79.531834742800001</v>
+      </c>
+      <c r="E20" s="4">
+        <v>31</v>
+      </c>
+      <c r="F20" s="8">
+        <v>21</v>
+      </c>
+      <c r="G20" s="8">
         <v>0</v>
       </c>
-      <c r="H20" s="7">
-        <v>1</v>
+      <c r="H20" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>-79.531836999999996</v>
+        <v>-79.531834000000003</v>
       </c>
       <c r="B21" s="3">
-        <v>9.0231349999999999</v>
-      </c>
-      <c r="C21" s="4">
-        <v>9.0231487646299993</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-79.531841917199998</v>
-      </c>
-      <c r="E21" s="4">
+        <v>9.0231209999999997</v>
+      </c>
+      <c r="C21" s="6">
+        <v>9.0231346666099999</v>
+      </c>
+      <c r="D21" s="7">
+        <v>-79.531838299100002</v>
+      </c>
+      <c r="E21" s="6">
         <v>30</v>
       </c>
-      <c r="F21" s="8">
-        <v>23</v>
-      </c>
-      <c r="G21" s="8">
+      <c r="F21" s="9">
+        <v>22</v>
+      </c>
+      <c r="G21" s="9">
         <v>0</v>
       </c>
-      <c r="H21" s="5">
-        <v>0</v>
+      <c r="H21" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>-79.531841</v>
+        <v>-79.531836999999996</v>
       </c>
       <c r="B22" s="3">
-        <v>9.0231490000000001</v>
-      </c>
-      <c r="C22" s="6">
-        <v>9.0231609862299997</v>
-      </c>
-      <c r="D22" s="7">
-        <v>-79.531845053699996</v>
-      </c>
-      <c r="E22" s="6">
-        <v>29</v>
-      </c>
-      <c r="F22" s="9">
-        <v>25</v>
-      </c>
-      <c r="G22" s="9">
+        <v>9.0231349999999999</v>
+      </c>
+      <c r="C22" s="4">
+        <v>9.0231487646299993</v>
+      </c>
+      <c r="D22" s="5">
+        <v>-79.531841917199998</v>
+      </c>
+      <c r="E22" s="4">
+        <v>30</v>
+      </c>
+      <c r="F22" s="8">
+        <v>23</v>
+      </c>
+      <c r="G22" s="8">
         <v>0</v>
       </c>
-      <c r="H22" s="7">
-        <v>1</v>
+      <c r="H22" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>-79.531845000000004</v>
+        <v>-79.531841</v>
       </c>
       <c r="B23" s="3">
-        <v>9.023161</v>
-      </c>
-      <c r="C23" s="4">
-        <v>9.0231720288399995</v>
-      </c>
-      <c r="D23" s="5">
-        <v>-79.531847887599994</v>
-      </c>
-      <c r="E23" s="4">
+        <v>9.0231490000000001</v>
+      </c>
+      <c r="C23" s="6">
+        <v>9.0231609862299997</v>
+      </c>
+      <c r="D23" s="7">
+        <v>-79.531845053699996</v>
+      </c>
+      <c r="E23" s="6">
         <v>29</v>
       </c>
-      <c r="F23" s="8">
-        <v>26</v>
-      </c>
-      <c r="G23" s="8">
+      <c r="F23" s="9">
+        <v>25</v>
+      </c>
+      <c r="G23" s="9">
         <v>0</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>-79.531847999999997</v>
+        <v>-79.531845000000004</v>
       </c>
       <c r="B24" s="3">
-        <v>9.0231720000000006</v>
-      </c>
-      <c r="C24" s="6">
-        <v>9.0231799911500001</v>
-      </c>
-      <c r="D24" s="7">
-        <v>-79.531849930999996</v>
-      </c>
-      <c r="E24" s="6">
-        <v>28</v>
-      </c>
-      <c r="F24" s="9">
+        <v>9.023161</v>
+      </c>
+      <c r="C24" s="4">
+        <v>9.0231720288399995</v>
+      </c>
+      <c r="D24" s="5">
+        <v>-79.531847887599994</v>
+      </c>
+      <c r="E24" s="4">
+        <v>29</v>
+      </c>
+      <c r="F24" s="8">
         <v>26</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="8">
         <v>0</v>
       </c>
-      <c r="H24" s="7">
-        <v>2</v>
+      <c r="H24" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>-79.531846000000002</v>
+        <v>-79.531847999999997</v>
       </c>
       <c r="B25" s="3">
-        <v>9.0231809999999992</v>
-      </c>
-      <c r="C25" s="4">
-        <v>9.0231856203999996</v>
-      </c>
-      <c r="D25" s="5">
-        <v>-79.531851375700001</v>
-      </c>
-      <c r="E25" s="4">
+        <v>9.0231720000000006</v>
+      </c>
+      <c r="C25" s="6">
+        <v>9.0231799911500001</v>
+      </c>
+      <c r="D25" s="7">
+        <v>-79.531849930999996</v>
+      </c>
+      <c r="E25" s="6">
         <v>28</v>
       </c>
-      <c r="F25" s="8">
-        <v>27</v>
-      </c>
-      <c r="G25" s="8">
+      <c r="F25" s="9">
+        <v>26</v>
+      </c>
+      <c r="G25" s="9">
         <v>0</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="7">
         <v>2</v>
       </c>
     </row>
@@ -10306,32 +10422,58 @@
         <v>-79.531846000000002</v>
       </c>
       <c r="B26" s="3">
-        <v>9.0231870000000001</v>
-      </c>
-      <c r="C26" s="6">
-        <v>9.0231849229699996</v>
-      </c>
-      <c r="D26" s="7">
-        <v>-79.531851196700003</v>
-      </c>
-      <c r="E26" s="6">
+        <v>9.0231809999999992</v>
+      </c>
+      <c r="C26" s="4">
+        <v>9.0231856203999996</v>
+      </c>
+      <c r="D26" s="5">
+        <v>-79.531851375700001</v>
+      </c>
+      <c r="E26" s="4">
         <v>28</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <v>27</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="8">
         <v>0</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
+        <v>-79.531846000000002</v>
+      </c>
+      <c r="B27" s="3">
+        <v>9.0231870000000001</v>
+      </c>
+      <c r="C27" s="6">
+        <v>9.0231849229699996</v>
+      </c>
+      <c r="D27" s="7">
+        <v>-79.531851196700003</v>
+      </c>
+      <c r="E27" s="6">
+        <v>28</v>
+      </c>
+      <c r="F27" s="9">
+        <v>27</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
         <v>-79.531846999999999</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B28" s="3">
         <v>9.0231860000000008</v>
       </c>
     </row>
@@ -10342,63 +10484,63 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191D3F6F-2E5C-4D3A-8A3B-805A9AE61C34}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:H37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3">
-        <v>-79.531845000000004</v>
-      </c>
-      <c r="B1" s="3">
-        <v>9.0231870000000001</v>
-      </c>
-      <c r="C1" s="4">
-        <v>9.0231775712799998</v>
-      </c>
-      <c r="D1" s="5">
-        <v>-79.531824502500001</v>
-      </c>
-      <c r="E1" s="4">
-        <v>27</v>
-      </c>
-      <c r="F1" s="8">
-        <v>27</v>
-      </c>
-      <c r="G1" s="8">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="5">
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>2</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>-79.531842999999995</v>
+        <v>-79.531845000000004</v>
       </c>
       <c r="B2" s="3">
-        <v>9.0231879999999993</v>
-      </c>
-      <c r="C2" s="6">
-        <v>9.0231783300899995</v>
-      </c>
-      <c r="D2" s="7">
-        <v>-79.531824074699998</v>
-      </c>
-      <c r="E2" s="6">
+        <v>9.0231870000000001</v>
+      </c>
+      <c r="C2" s="4">
+        <v>9.0231775712799998</v>
+      </c>
+      <c r="D2" s="5">
+        <v>-79.531824502500001</v>
+      </c>
+      <c r="E2" s="4">
         <v>27</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>27</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>0</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="5">
         <v>2</v>
       </c>
     </row>
@@ -10407,674 +10549,674 @@
         <v>-79.531842999999995</v>
       </c>
       <c r="B3" s="3">
-        <v>9.0231890000000003</v>
-      </c>
-      <c r="C3" s="4">
-        <v>9.0231844973400008</v>
-      </c>
-      <c r="D3" s="5">
-        <v>-79.531820597600003</v>
-      </c>
-      <c r="E3" s="4">
+        <v>9.0231879999999993</v>
+      </c>
+      <c r="C3" s="6">
+        <v>9.0231783300899995</v>
+      </c>
+      <c r="D3" s="7">
+        <v>-79.531824074699998</v>
+      </c>
+      <c r="E3" s="6">
         <v>27</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="9">
         <v>27</v>
       </c>
-      <c r="G3" s="8">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5">
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>-79.531841</v>
+        <v>-79.531842999999995</v>
       </c>
       <c r="B4" s="3">
-        <v>9.0231960000000004</v>
-      </c>
-      <c r="C4" s="6">
-        <v>9.0231935624399995</v>
-      </c>
-      <c r="D4" s="7">
-        <v>-79.531815486799999</v>
-      </c>
-      <c r="E4" s="6">
-        <v>26</v>
-      </c>
-      <c r="F4" s="9">
+        <v>9.0231890000000003</v>
+      </c>
+      <c r="C4" s="4">
+        <v>9.0231844973400008</v>
+      </c>
+      <c r="D4" s="5">
+        <v>-79.531820597600003</v>
+      </c>
+      <c r="E4" s="4">
         <v>27</v>
       </c>
-      <c r="G4" s="9">
-        <v>2</v>
-      </c>
-      <c r="H4" s="7">
+      <c r="F4" s="8">
+        <v>27</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>-79.531834000000003</v>
+        <v>-79.531841</v>
       </c>
       <c r="B5" s="3">
-        <v>9.0232039999999998</v>
-      </c>
-      <c r="C5" s="4">
-        <v>9.0232042419699994</v>
-      </c>
-      <c r="D5" s="5">
-        <v>-79.531809465799995</v>
-      </c>
-      <c r="E5" s="4">
-        <v>24</v>
-      </c>
-      <c r="F5" s="8">
+        <v>9.0231960000000004</v>
+      </c>
+      <c r="C5" s="6">
+        <v>9.0231935624399995</v>
+      </c>
+      <c r="D5" s="7">
+        <v>-79.531815486799999</v>
+      </c>
+      <c r="E5" s="6">
+        <v>26</v>
+      </c>
+      <c r="F5" s="9">
         <v>27</v>
       </c>
-      <c r="G5" s="8">
-        <v>3</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1</v>
+      <c r="G5" s="9">
+        <v>2</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>-79.531824999999998</v>
+        <v>-79.531834000000003</v>
       </c>
       <c r="B6" s="3">
-        <v>9.0232130000000002</v>
-      </c>
-      <c r="C6" s="6">
-        <v>9.0232165359100005</v>
-      </c>
-      <c r="D6" s="7">
-        <v>-79.531802534600004</v>
-      </c>
-      <c r="E6" s="6">
-        <v>22</v>
-      </c>
-      <c r="F6" s="9">
+        <v>9.0232039999999998</v>
+      </c>
+      <c r="C6" s="4">
+        <v>9.0232042419699994</v>
+      </c>
+      <c r="D6" s="5">
+        <v>-79.531809465799995</v>
+      </c>
+      <c r="E6" s="4">
+        <v>24</v>
+      </c>
+      <c r="F6" s="8">
         <v>27</v>
       </c>
-      <c r="G6" s="9">
-        <v>5</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="G6" s="8">
+        <v>3</v>
+      </c>
+      <c r="H6" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>-79.531813999999997</v>
+        <v>-79.531824999999998</v>
       </c>
       <c r="B7" s="3">
-        <v>9.0232229999999998</v>
-      </c>
-      <c r="C7" s="4">
-        <v>9.0232290640499997</v>
-      </c>
-      <c r="D7" s="5">
-        <v>-79.531795471400002</v>
-      </c>
-      <c r="E7" s="4">
-        <v>21</v>
-      </c>
-      <c r="F7" s="8">
+        <v>9.0232130000000002</v>
+      </c>
+      <c r="C7" s="6">
+        <v>9.0232165359100005</v>
+      </c>
+      <c r="D7" s="7">
+        <v>-79.531802534600004</v>
+      </c>
+      <c r="E7" s="6">
+        <v>22</v>
+      </c>
+      <c r="F7" s="9">
         <v>27</v>
       </c>
-      <c r="G7" s="8">
-        <v>6</v>
-      </c>
-      <c r="H7" s="5">
+      <c r="G7" s="9">
+        <v>5</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>-79.531806000000003</v>
+        <v>-79.531813999999997</v>
       </c>
       <c r="B8" s="3">
-        <v>9.0232349999999997</v>
-      </c>
-      <c r="C8" s="6">
-        <v>9.0232405023800002</v>
-      </c>
-      <c r="D8" s="7">
-        <v>-79.531789022500007</v>
-      </c>
-      <c r="E8" s="6">
-        <v>20</v>
-      </c>
-      <c r="F8" s="9">
+        <v>9.0232229999999998</v>
+      </c>
+      <c r="C8" s="4">
+        <v>9.0232290640499997</v>
+      </c>
+      <c r="D8" s="5">
+        <v>-79.531795471400002</v>
+      </c>
+      <c r="E8" s="4">
+        <v>21</v>
+      </c>
+      <c r="F8" s="8">
         <v>27</v>
       </c>
-      <c r="G8" s="9">
-        <v>7</v>
-      </c>
-      <c r="H8" s="7">
+      <c r="G8" s="8">
+        <v>6</v>
+      </c>
+      <c r="H8" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>-79.531796999999997</v>
+        <v>-79.531806000000003</v>
       </c>
       <c r="B9" s="3">
-        <v>9.0232449999999993</v>
-      </c>
-      <c r="C9" s="4">
-        <v>9.0232525058899995</v>
-      </c>
-      <c r="D9" s="5">
-        <v>-79.531782255099998</v>
-      </c>
-      <c r="E9" s="4">
-        <v>18</v>
-      </c>
-      <c r="F9" s="8">
-        <v>28</v>
-      </c>
-      <c r="G9" s="8">
-        <v>8</v>
-      </c>
-      <c r="H9" s="5">
+        <v>9.0232349999999997</v>
+      </c>
+      <c r="C9" s="6">
+        <v>9.0232405023800002</v>
+      </c>
+      <c r="D9" s="7">
+        <v>-79.531789022500007</v>
+      </c>
+      <c r="E9" s="6">
+        <v>20</v>
+      </c>
+      <c r="F9" s="9">
+        <v>27</v>
+      </c>
+      <c r="G9" s="9">
+        <v>7</v>
+      </c>
+      <c r="H9" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>-79.531791999999996</v>
+        <v>-79.531796999999997</v>
       </c>
       <c r="B10" s="3">
-        <v>9.0232580000000002</v>
-      </c>
-      <c r="C10" s="6">
-        <v>9.0232645094099997</v>
-      </c>
-      <c r="D10" s="7">
-        <v>-79.531775487600001</v>
-      </c>
-      <c r="E10" s="6">
-        <v>17</v>
-      </c>
-      <c r="F10" s="9">
+        <v>9.0232449999999993</v>
+      </c>
+      <c r="C10" s="4">
+        <v>9.0232525058899995</v>
+      </c>
+      <c r="D10" s="5">
+        <v>-79.531782255099998</v>
+      </c>
+      <c r="E10" s="4">
+        <v>18</v>
+      </c>
+      <c r="F10" s="8">
         <v>28</v>
       </c>
-      <c r="G10" s="9">
-        <v>9</v>
-      </c>
-      <c r="H10" s="7">
+      <c r="G10" s="8">
+        <v>8</v>
+      </c>
+      <c r="H10" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>-79.531786999999994</v>
+        <v>-79.531791999999996</v>
       </c>
       <c r="B11" s="3">
-        <v>9.0232709999999994</v>
-      </c>
-      <c r="C11" s="4">
-        <v>9.0232754231199994</v>
-      </c>
-      <c r="D11" s="5">
-        <v>-79.531769334499998</v>
-      </c>
-      <c r="E11" s="4">
-        <v>16</v>
-      </c>
-      <c r="F11" s="8">
-        <v>29</v>
-      </c>
-      <c r="G11" s="8">
-        <v>10</v>
-      </c>
-      <c r="H11" s="5">
+        <v>9.0232580000000002</v>
+      </c>
+      <c r="C11" s="6">
+        <v>9.0232645094099997</v>
+      </c>
+      <c r="D11" s="7">
+        <v>-79.531775487600001</v>
+      </c>
+      <c r="E11" s="6">
+        <v>17</v>
+      </c>
+      <c r="F11" s="9">
+        <v>28</v>
+      </c>
+      <c r="G11" s="9">
+        <v>9</v>
+      </c>
+      <c r="H11" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>-79.531780999999995</v>
+        <v>-79.531786999999994</v>
       </c>
       <c r="B12" s="3">
-        <v>9.023282</v>
-      </c>
-      <c r="C12" s="6">
-        <v>9.0232867646399999</v>
-      </c>
-      <c r="D12" s="7">
-        <v>-79.531762940299998</v>
-      </c>
-      <c r="E12" s="6">
-        <v>14</v>
-      </c>
-      <c r="F12" s="9">
+        <v>9.0232709999999994</v>
+      </c>
+      <c r="C12" s="4">
+        <v>9.0232754231199994</v>
+      </c>
+      <c r="D12" s="5">
+        <v>-79.531769334499998</v>
+      </c>
+      <c r="E12" s="4">
+        <v>16</v>
+      </c>
+      <c r="F12" s="8">
         <v>29</v>
       </c>
-      <c r="G12" s="9">
-        <v>11</v>
-      </c>
-      <c r="H12" s="7">
+      <c r="G12" s="8">
+        <v>10</v>
+      </c>
+      <c r="H12" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>-79.531773999999999</v>
+        <v>-79.531780999999995</v>
       </c>
       <c r="B13" s="3">
-        <v>9.0232930000000007</v>
-      </c>
-      <c r="C13" s="4">
-        <v>9.0232974441600007</v>
-      </c>
-      <c r="D13" s="5">
-        <v>-79.531756919299994</v>
-      </c>
-      <c r="E13" s="4">
-        <v>13</v>
-      </c>
-      <c r="F13" s="8">
+        <v>9.023282</v>
+      </c>
+      <c r="C13" s="6">
+        <v>9.0232867646399999</v>
+      </c>
+      <c r="D13" s="7">
+        <v>-79.531762940299998</v>
+      </c>
+      <c r="E13" s="6">
+        <v>14</v>
+      </c>
+      <c r="F13" s="9">
         <v>29</v>
       </c>
-      <c r="G13" s="8">
-        <v>12</v>
-      </c>
-      <c r="H13" s="5">
+      <c r="G13" s="9">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>-79.531764999999993</v>
+        <v>-79.531773999999999</v>
       </c>
       <c r="B14" s="3">
-        <v>9.0233019999999993</v>
-      </c>
-      <c r="C14" s="6">
-        <v>9.0233088824899994</v>
-      </c>
-      <c r="D14" s="7">
-        <v>-79.531750470399999</v>
-      </c>
-      <c r="E14" s="6">
+        <v>9.0232930000000007</v>
+      </c>
+      <c r="C14" s="4">
+        <v>9.0232974441600007</v>
+      </c>
+      <c r="D14" s="5">
+        <v>-79.531756919299994</v>
+      </c>
+      <c r="E14" s="4">
+        <v>13</v>
+      </c>
+      <c r="F14" s="8">
+        <v>29</v>
+      </c>
+      <c r="G14" s="8">
         <v>12</v>
       </c>
-      <c r="F14" s="9">
-        <v>29</v>
-      </c>
-      <c r="G14" s="9">
-        <v>13</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
+      <c r="H14" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>-79.531756000000001</v>
+        <v>-79.531764999999993</v>
       </c>
       <c r="B15" s="3">
-        <v>9.0233120000000007</v>
-      </c>
-      <c r="C15" s="4">
-        <v>9.0233211764399996</v>
-      </c>
-      <c r="D15" s="5">
-        <v>-79.531743539199994</v>
-      </c>
-      <c r="E15" s="4">
-        <v>10</v>
-      </c>
-      <c r="F15" s="8">
+        <v>9.0233019999999993</v>
+      </c>
+      <c r="C15" s="6">
+        <v>9.0233088824899994</v>
+      </c>
+      <c r="D15" s="7">
+        <v>-79.531750470399999</v>
+      </c>
+      <c r="E15" s="6">
+        <v>12</v>
+      </c>
+      <c r="F15" s="9">
         <v>29</v>
       </c>
-      <c r="G15" s="8">
-        <v>15</v>
-      </c>
-      <c r="H15" s="5">
+      <c r="G15" s="9">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>-79.531745000000001</v>
+        <v>-79.531756000000001</v>
       </c>
       <c r="B16" s="3">
-        <v>9.0233220000000003</v>
-      </c>
-      <c r="C16" s="6">
-        <v>9.0233325179499992</v>
-      </c>
-      <c r="D16" s="7">
-        <v>-79.531737144999994</v>
-      </c>
-      <c r="E16" s="6">
-        <v>9</v>
-      </c>
-      <c r="F16" s="9">
+        <v>9.0233120000000007</v>
+      </c>
+      <c r="C16" s="4">
+        <v>9.0233211764399996</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-79.531743539199994</v>
+      </c>
+      <c r="E16" s="4">
+        <v>10</v>
+      </c>
+      <c r="F16" s="8">
         <v>29</v>
       </c>
-      <c r="G16" s="9">
-        <v>16</v>
-      </c>
-      <c r="H16" s="7">
+      <c r="G16" s="8">
+        <v>15</v>
+      </c>
+      <c r="H16" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>-79.531738000000004</v>
+        <v>-79.531745000000001</v>
       </c>
       <c r="B17" s="3">
-        <v>9.0233329999999992</v>
-      </c>
-      <c r="C17" s="4">
-        <v>9.0233449492800002</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-79.531730136299998</v>
-      </c>
-      <c r="E17" s="4">
-        <v>7</v>
-      </c>
-      <c r="F17" s="8">
+        <v>9.0233220000000003</v>
+      </c>
+      <c r="C17" s="6">
+        <v>9.0233325179499992</v>
+      </c>
+      <c r="D17" s="7">
+        <v>-79.531737144999994</v>
+      </c>
+      <c r="E17" s="6">
+        <v>9</v>
+      </c>
+      <c r="F17" s="9">
         <v>29</v>
       </c>
-      <c r="G17" s="8">
-        <v>17</v>
-      </c>
-      <c r="H17" s="5">
+      <c r="G17" s="9">
+        <v>16</v>
+      </c>
+      <c r="H17" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>-79.531732000000005</v>
+        <v>-79.531738000000004</v>
       </c>
       <c r="B18" s="3">
-        <v>9.0233460000000001</v>
-      </c>
-      <c r="C18" s="6">
-        <v>9.0233565249899996</v>
-      </c>
-      <c r="D18" s="7">
-        <v>-79.53172361</v>
-      </c>
-      <c r="E18" s="6">
-        <v>6</v>
-      </c>
-      <c r="F18" s="9">
-        <v>30</v>
-      </c>
-      <c r="G18" s="9">
+        <v>9.0233329999999992</v>
+      </c>
+      <c r="C18" s="4">
+        <v>9.0233449492800002</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-79.531730136299998</v>
+      </c>
+      <c r="E18" s="4">
+        <v>7</v>
+      </c>
+      <c r="F18" s="8">
+        <v>29</v>
+      </c>
+      <c r="G18" s="8">
         <v>17</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>-79.531728000000001</v>
+        <v>-79.531732000000005</v>
       </c>
       <c r="B19" s="3">
-        <v>9.0233589999999992</v>
-      </c>
-      <c r="C19" s="4">
-        <v>9.0233670108900004</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-79.531717698199998</v>
-      </c>
-      <c r="E19" s="4">
-        <v>5</v>
-      </c>
-      <c r="F19" s="8">
+        <v>9.0233460000000001</v>
+      </c>
+      <c r="C19" s="6">
+        <v>9.0233565249899996</v>
+      </c>
+      <c r="D19" s="7">
+        <v>-79.53172361</v>
+      </c>
+      <c r="E19" s="6">
+        <v>6</v>
+      </c>
+      <c r="F19" s="9">
         <v>30</v>
       </c>
-      <c r="G19" s="8">
-        <v>18</v>
-      </c>
-      <c r="H19" s="5">
+      <c r="G19" s="9">
+        <v>17</v>
+      </c>
+      <c r="H19" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>-79.531723</v>
+        <v>-79.531728000000001</v>
       </c>
       <c r="B20" s="3">
-        <v>9.0233699999999999</v>
-      </c>
-      <c r="C20" s="6">
-        <v>9.0233783524100009</v>
-      </c>
-      <c r="D20" s="7">
-        <v>-79.531711303899996</v>
-      </c>
-      <c r="E20" s="6">
-        <v>3</v>
-      </c>
-      <c r="F20" s="9">
-        <v>31</v>
-      </c>
-      <c r="G20" s="9">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
+        <v>9.0233589999999992</v>
+      </c>
+      <c r="C20" s="4">
+        <v>9.0233670108900004</v>
+      </c>
+      <c r="D20" s="5">
+        <v>-79.531717698199998</v>
+      </c>
+      <c r="E20" s="4">
+        <v>5</v>
+      </c>
+      <c r="F20" s="8">
+        <v>30</v>
+      </c>
+      <c r="G20" s="8">
+        <v>18</v>
+      </c>
+      <c r="H20" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>-79.531716000000003</v>
+        <v>-79.531723</v>
       </c>
       <c r="B21" s="3">
-        <v>9.0233810000000005</v>
-      </c>
-      <c r="C21" s="4">
-        <v>9.0233893629300006</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-79.531705096300001</v>
-      </c>
-      <c r="E21" s="4">
-        <v>2</v>
-      </c>
-      <c r="F21" s="8">
+        <v>9.0233699999999999</v>
+      </c>
+      <c r="C21" s="6">
+        <v>9.0233783524100009</v>
+      </c>
+      <c r="D21" s="7">
+        <v>-79.531711303899996</v>
+      </c>
+      <c r="E21" s="6">
+        <v>3</v>
+      </c>
+      <c r="F21" s="9">
         <v>31</v>
       </c>
-      <c r="G21" s="8">
-        <v>20</v>
-      </c>
-      <c r="H21" s="5">
+      <c r="G21" s="9">
+        <v>19</v>
+      </c>
+      <c r="H21" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>-79.531707999999995</v>
+        <v>-79.531716000000003</v>
       </c>
       <c r="B22" s="3">
-        <v>9.0233910000000002</v>
-      </c>
-      <c r="C22" s="6">
-        <v>9.0234003734500003</v>
-      </c>
-      <c r="D22" s="7">
-        <v>-79.531698888700006</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1</v>
-      </c>
-      <c r="F22" s="9">
+        <v>9.0233810000000005</v>
+      </c>
+      <c r="C22" s="4">
+        <v>9.0233893629300006</v>
+      </c>
+      <c r="D22" s="5">
+        <v>-79.531705096300001</v>
+      </c>
+      <c r="E22" s="4">
+        <v>2</v>
+      </c>
+      <c r="F22" s="8">
         <v>31</v>
       </c>
-      <c r="G22" s="9">
-        <v>21</v>
-      </c>
-      <c r="H22" s="7">
+      <c r="G22" s="8">
+        <v>20</v>
+      </c>
+      <c r="H22" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>-79.531700000000001</v>
+        <v>-79.531707999999995</v>
       </c>
       <c r="B23" s="3">
-        <v>9.0234009999999998</v>
-      </c>
-      <c r="C23" s="4">
-        <v>9.0234106251699995</v>
-      </c>
-      <c r="D23" s="5">
-        <v>-79.531693108900001</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23" s="8">
+        <v>9.0233910000000002</v>
+      </c>
+      <c r="C23" s="6">
+        <v>9.0234003734500003</v>
+      </c>
+      <c r="D23" s="7">
+        <v>-79.531698888700006</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+      <c r="F23" s="9">
         <v>31</v>
       </c>
-      <c r="G23" s="8">
-        <v>23</v>
-      </c>
-      <c r="H23" s="5">
+      <c r="G23" s="9">
+        <v>21</v>
+      </c>
+      <c r="H23" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>-79.531692000000007</v>
+        <v>-79.531700000000001</v>
       </c>
       <c r="B24" s="3">
-        <v>9.0234100000000002</v>
-      </c>
-      <c r="C24" s="6">
-        <v>9.0234203522699996</v>
-      </c>
-      <c r="D24" s="7">
-        <v>-79.5316876248</v>
-      </c>
-      <c r="E24" s="6">
-        <v>1</v>
-      </c>
-      <c r="F24" s="9">
+        <v>9.0234009999999998</v>
+      </c>
+      <c r="C24" s="4">
+        <v>9.0234106251699995</v>
+      </c>
+      <c r="D24" s="5">
+        <v>-79.531693108900001</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8">
         <v>31</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="8">
         <v>23</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>-79.531687000000005</v>
+        <v>-79.531692000000007</v>
       </c>
       <c r="B25" s="3">
-        <v>9.0234199999999998</v>
-      </c>
-      <c r="C25" s="4">
-        <v>9.0234257607200004</v>
-      </c>
-      <c r="D25" s="5">
-        <v>-79.531684575599996</v>
-      </c>
-      <c r="E25" s="4">
+        <v>9.0234100000000002</v>
+      </c>
+      <c r="C25" s="6">
+        <v>9.0234203522699996</v>
+      </c>
+      <c r="D25" s="7">
+        <v>-79.5316876248</v>
+      </c>
+      <c r="E25" s="6">
         <v>1</v>
       </c>
-      <c r="F25" s="8">
-        <v>32</v>
-      </c>
-      <c r="G25" s="8">
-        <v>24</v>
-      </c>
-      <c r="H25" s="5">
+      <c r="F25" s="9">
+        <v>31</v>
+      </c>
+      <c r="G25" s="9">
+        <v>23</v>
+      </c>
+      <c r="H25" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>-79.531684999999996</v>
+        <v>-79.531687000000005</v>
       </c>
       <c r="B26" s="3">
-        <v>9.0234260000000006</v>
-      </c>
-      <c r="C26" s="6">
-        <v>9.0234256639100003</v>
-      </c>
-      <c r="D26" s="7">
-        <v>-79.531684630200004</v>
-      </c>
-      <c r="E26" s="6">
+        <v>9.0234199999999998</v>
+      </c>
+      <c r="C26" s="4">
+        <v>9.0234257607200004</v>
+      </c>
+      <c r="D26" s="5">
+        <v>-79.531684575599996</v>
+      </c>
+      <c r="E26" s="4">
         <v>1</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <v>32</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="8">
         <v>24</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>-79.531687000000005</v>
+        <v>-79.531684999999996</v>
       </c>
       <c r="B27" s="3">
-        <v>9.0234269999999999</v>
-      </c>
-      <c r="C27" s="4">
-        <v>9.0234244772899999</v>
-      </c>
-      <c r="D27" s="5">
-        <v>-79.531685299200007</v>
-      </c>
-      <c r="E27" s="4">
+        <v>9.0234260000000006</v>
+      </c>
+      <c r="C27" s="6">
+        <v>9.0234256639100003</v>
+      </c>
+      <c r="D27" s="7">
+        <v>-79.531684630200004</v>
+      </c>
+      <c r="E27" s="6">
         <v>1</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="9">
         <v>32</v>
       </c>
-      <c r="G27" s="8">
-        <v>23</v>
-      </c>
-      <c r="H27" s="5">
+      <c r="G27" s="9">
+        <v>24</v>
+      </c>
+      <c r="H27" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>-79.531688000000003</v>
+        <v>-79.531687000000005</v>
       </c>
       <c r="B28" s="3">
-        <v>9.0234260000000006</v>
-      </c>
-      <c r="C28" s="6">
-        <v>9.0234252360999996</v>
-      </c>
-      <c r="D28" s="7">
-        <v>-79.531684871400003</v>
-      </c>
-      <c r="E28" s="6">
+        <v>9.0234269999999999</v>
+      </c>
+      <c r="C28" s="4">
+        <v>9.0234244772899999</v>
+      </c>
+      <c r="D28" s="5">
+        <v>-79.531685299200007</v>
+      </c>
+      <c r="E28" s="4">
         <v>1</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="8">
         <v>32</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="8">
         <v>23</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="5">
         <v>0</v>
       </c>
     </row>
@@ -11083,24 +11225,24 @@
         <v>-79.531688000000003</v>
       </c>
       <c r="B29" s="3">
-        <v>9.0234269999999999</v>
-      </c>
-      <c r="C29" s="4">
+        <v>9.0234260000000006</v>
+      </c>
+      <c r="C29" s="6">
         <v>9.0234252360999996</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="7">
         <v>-79.531684871400003</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="6">
         <v>1</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="9">
         <v>32</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="9">
         <v>23</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="7">
         <v>0</v>
       </c>
     </row>
@@ -11111,22 +11253,22 @@
       <c r="B30" s="3">
         <v>9.0234269999999999</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="4">
         <v>9.0234252360999996</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="5">
         <v>-79.531684871400003</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="4">
         <v>1</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="8">
         <v>32</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="8">
         <v>23</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="5">
         <v>0</v>
       </c>
     </row>
@@ -11137,22 +11279,22 @@
       <c r="B31" s="3">
         <v>9.0234269999999999</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="6">
         <v>9.0234252360999996</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="7">
         <v>-79.531684871400003</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="6">
         <v>1</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="9">
         <v>32</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="9">
         <v>23</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="7">
         <v>0</v>
       </c>
     </row>
@@ -11163,22 +11305,22 @@
       <c r="B32" s="3">
         <v>9.0234269999999999</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="4">
         <v>9.0234252360999996</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="5">
         <v>-79.531684871400003</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="4">
         <v>1</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="8">
         <v>32</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="8">
         <v>23</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="5">
         <v>0</v>
       </c>
     </row>
@@ -11189,22 +11331,22 @@
       <c r="B33" s="3">
         <v>9.0234269999999999</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="6">
         <v>9.0234252360999996</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="7">
         <v>-79.531684871400003</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="6">
         <v>1</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="9">
         <v>32</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="9">
         <v>23</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="7">
         <v>0</v>
       </c>
     </row>
@@ -11215,22 +11357,22 @@
       <c r="B34" s="3">
         <v>9.0234269999999999</v>
       </c>
-      <c r="C34" s="6">
-        <v>9.0234259949099993</v>
-      </c>
-      <c r="D34" s="7">
-        <v>-79.531684443499998</v>
-      </c>
-      <c r="E34" s="6">
+      <c r="C34" s="4">
+        <v>9.0234252360999996</v>
+      </c>
+      <c r="D34" s="5">
+        <v>-79.531684871400003</v>
+      </c>
+      <c r="E34" s="4">
         <v>1</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="8">
         <v>32</v>
       </c>
-      <c r="G34" s="9">
-        <v>24</v>
-      </c>
-      <c r="H34" s="7">
+      <c r="G34" s="8">
+        <v>23</v>
+      </c>
+      <c r="H34" s="5">
         <v>0</v>
       </c>
     </row>
@@ -11239,84 +11381,110 @@
         <v>-79.531688000000003</v>
       </c>
       <c r="B35" s="3">
-        <v>9.0234279999999991</v>
-      </c>
-      <c r="C35" s="4">
-        <v>9.0234251392899996</v>
-      </c>
-      <c r="D35" s="5">
-        <v>-79.531684925899995</v>
-      </c>
-      <c r="E35" s="4">
+        <v>9.0234269999999999</v>
+      </c>
+      <c r="C35" s="6">
+        <v>9.0234259949099993</v>
+      </c>
+      <c r="D35" s="7">
+        <v>-79.531684443499998</v>
+      </c>
+      <c r="E35" s="6">
         <v>1</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="9">
         <v>32</v>
       </c>
-      <c r="G35" s="8">
-        <v>23</v>
-      </c>
-      <c r="H35" s="5">
+      <c r="G35" s="9">
+        <v>24</v>
+      </c>
+      <c r="H35" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>-79.531689999999998</v>
+        <v>-79.531688000000003</v>
       </c>
       <c r="B36" s="3">
         <v>9.0234279999999991</v>
       </c>
-      <c r="C36" s="6">
-        <v>9.0234255671000003</v>
-      </c>
-      <c r="D36" s="7">
-        <v>-79.531684684699997</v>
-      </c>
-      <c r="E36" s="6">
+      <c r="C36" s="4">
+        <v>9.0234251392899996</v>
+      </c>
+      <c r="D36" s="5">
+        <v>-79.531684925899995</v>
+      </c>
+      <c r="E36" s="4">
         <v>1</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="8">
         <v>32</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="8">
         <v>23</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>-79.531689</v>
+        <v>-79.531689999999998</v>
       </c>
       <c r="B37" s="3">
         <v>9.0234279999999991</v>
       </c>
-      <c r="C37" s="4">
-        <v>9.0234276093299997</v>
-      </c>
-      <c r="D37" s="5">
-        <v>-79.531683533399999</v>
-      </c>
-      <c r="E37" s="4">
+      <c r="C37" s="6">
+        <v>9.0234255671000003</v>
+      </c>
+      <c r="D37" s="7">
+        <v>-79.531684684699997</v>
+      </c>
+      <c r="E37" s="6">
         <v>1</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="9">
         <v>32</v>
       </c>
-      <c r="G37" s="8">
-        <v>24</v>
-      </c>
-      <c r="H37" s="5">
+      <c r="G37" s="9">
+        <v>23</v>
+      </c>
+      <c r="H37" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
+        <v>-79.531689</v>
+      </c>
+      <c r="B38" s="3">
+        <v>9.0234279999999991</v>
+      </c>
+      <c r="C38" s="4">
+        <v>9.0234276093299997</v>
+      </c>
+      <c r="D38" s="5">
+        <v>-79.531683533399999</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+      <c r="F38" s="8">
+        <v>32</v>
+      </c>
+      <c r="G38" s="8">
+        <v>24</v>
+      </c>
+      <c r="H38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
         <v>-79.531685999999993</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B39" s="3">
         <v>9.0234290000000001</v>
       </c>
     </row>
